--- a/삼성중공업_pbc.xlsx
+++ b/삼성중공업_pbc.xlsx
@@ -14,33 +14,31 @@
     <sheet name="APD05" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="APD06" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="APD07" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="APD071" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="APD08" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="APD081" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="APD09" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="APD10" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="APD11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="APD12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="APD13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="APD14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="PC01" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="PC04" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="PC05" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="PC06" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="PC07" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="CO01" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="CO02" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="PD01" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="APD08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="APD09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="APD10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="APD11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="APD12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="APD13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="APD14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="PC01" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="PC04" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="PC05" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="PC06" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="PC07" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="CO01" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="CO02" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="PD01" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
-    <externalReference r:id="rId32"/>
-    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="_">#REF!</definedName>
@@ -8723,70 +8721,18 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <to>
-      <col>14</col>
-      <colOff>371475</colOff>
-      <row>42</row>
-      <rowOff>95555</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="그림 2"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill rotWithShape="1">
-        <a:blip r:embed="rId1"/>
-        <a:srcRect b="4093"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="0" y="628650"/>
-          <a:ext cx="9972675" cy="8268005"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
     <to>
-      <col>11</col>
-      <colOff>47625</colOff>
-      <row>34</row>
-      <rowOff>134305</rowOff>
+      <col>19</col>
+      <colOff>214359</colOff>
+      <row>43</row>
+      <rowOff>143796</rowOff>
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="그림 7"/>
+        <cNvPr id="4" name="그림 3"/>
         <cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
@@ -8800,7 +8746,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="0" y="419100"/>
-          <a:ext cx="7591425" cy="6839905"/>
+          <a:ext cx="13244559" cy="8735346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -19845,7 +19791,7 @@
       <c r="A5" s="13" t="n"/>
       <c r="B5" s="16" t="inlineStr">
         <is>
-          <t>자료 회신 요청: 2024-04-11</t>
+          <t>자료 회신 요청: 2024-04-12</t>
         </is>
       </c>
       <c r="C5" s="27" t="n"/>
@@ -20713,6 +20659,39 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>DB 접근권한 승인</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>오라클</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20729,14 +20708,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>데이터 변경 권한 제한</t>
+          <t>DB 패스워드</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>기본</t>
+          <t>오라클</t>
         </is>
       </c>
     </row>
@@ -21963,39 +21942,6 @@
       <c r="L68" s="54" t="inlineStr">
         <is>
           <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>데이터 변경 권한 제한</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -22010,10 +21956,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -22021,7 +21967,7 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>DB 접근권한 승인</t>
+          <t>DB 관리자 권한 제한</t>
         </is>
       </c>
     </row>
@@ -22029,6 +21975,1232 @@
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>오라클</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B45" s="56" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C45" s="56" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D45" s="57" t="inlineStr">
+        <is>
+          <t>Changed By</t>
+        </is>
+      </c>
+      <c r="E45" s="57" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F45" s="57" t="inlineStr">
+        <is>
+          <t>Old value</t>
+        </is>
+      </c>
+      <c r="G45" s="57" t="inlineStr">
+        <is>
+          <t>Text for the Old Value</t>
+        </is>
+      </c>
+      <c r="H45" s="57" t="inlineStr">
+        <is>
+          <t>New value</t>
+        </is>
+      </c>
+      <c r="I45" s="57" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="J45" s="57" t="inlineStr">
+        <is>
+          <t>TCode</t>
+        </is>
+      </c>
+      <c r="K45" s="57" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="L45" s="57" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="54" t="inlineStr">
+        <is>
+          <t>AA115767</t>
+        </is>
+      </c>
+      <c r="B46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>0.5591087962962963</v>
+      </c>
+      <c r="D46" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E46" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F46" s="54" t="n"/>
+      <c r="G46" s="54" t="n"/>
+      <c r="H46" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-007</t>
+        </is>
+      </c>
+      <c r="I46" s="54" t="n"/>
+      <c r="J46" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="L46" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="54" t="inlineStr">
+        <is>
+          <t>AA142616</t>
+        </is>
+      </c>
+      <c r="B47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="C47" s="55" t="n">
+        <v>0.4214930555555556</v>
+      </c>
+      <c r="D47" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E47" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F47" s="54" t="n"/>
+      <c r="G47" s="54" t="n"/>
+      <c r="H47" s="54" t="inlineStr">
+        <is>
+          <t>ZAA-GENL-001</t>
+        </is>
+      </c>
+      <c r="I47" s="54" t="inlineStr">
+        <is>
+          <t>정비부문 공통 Transaction</t>
+        </is>
+      </c>
+      <c r="J47" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="L47" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="54" t="inlineStr">
+        <is>
+          <t>AA170547</t>
+        </is>
+      </c>
+      <c r="B48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C48" s="55" t="n">
+        <v>0.7181597222222222</v>
+      </c>
+      <c r="D48" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E48" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F48" s="54" t="n"/>
+      <c r="G48" s="54" t="n"/>
+      <c r="H48" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I48" s="54" t="n"/>
+      <c r="J48" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L48" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="54" t="inlineStr">
+        <is>
+          <t>AA176250</t>
+        </is>
+      </c>
+      <c r="B49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="C49" s="55" t="n">
+        <v>0.3433449074074074</v>
+      </c>
+      <c r="D49" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E49" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F49" s="54" t="n"/>
+      <c r="G49" s="54" t="n"/>
+      <c r="H49" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-ME01-025</t>
+        </is>
+      </c>
+      <c r="I49" s="54" t="inlineStr">
+        <is>
+          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
+        </is>
+      </c>
+      <c r="J49" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="L49" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="54" t="inlineStr">
+        <is>
+          <t>AA181168</t>
+        </is>
+      </c>
+      <c r="B50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="C50" s="55" t="n">
+        <v>0.3649189814814815</v>
+      </c>
+      <c r="D50" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E50" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F50" s="54" t="n"/>
+      <c r="G50" s="54" t="n"/>
+      <c r="H50" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-016</t>
+        </is>
+      </c>
+      <c r="I50" s="54" t="inlineStr">
+        <is>
+          <t>Interface Display</t>
+        </is>
+      </c>
+      <c r="J50" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="L50" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="54" t="inlineStr">
+        <is>
+          <t>AA199530</t>
+        </is>
+      </c>
+      <c r="B51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="C51" s="55" t="n">
+        <v>0.3940046296296296</v>
+      </c>
+      <c r="D51" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E51" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F51" s="54" t="n"/>
+      <c r="G51" s="54" t="n"/>
+      <c r="H51" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-MQ-001</t>
+        </is>
+      </c>
+      <c r="I51" s="54" t="inlineStr">
+        <is>
+          <t>MQ 인가공급업체 관리</t>
+        </is>
+      </c>
+      <c r="J51" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="L51" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="54" t="inlineStr">
+        <is>
+          <t>AA208665</t>
+        </is>
+      </c>
+      <c r="B52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="C52" s="55" t="n">
+        <v>0.6525925925925926</v>
+      </c>
+      <c r="D52" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E52" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F52" s="54" t="n"/>
+      <c r="G52" s="54" t="n"/>
+      <c r="H52" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-EP000-000-M5</t>
+        </is>
+      </c>
+      <c r="I52" s="54" t="n"/>
+      <c r="J52" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="L52" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="54" t="inlineStr">
+        <is>
+          <t>AA216786</t>
+        </is>
+      </c>
+      <c r="B53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C53" s="55" t="n">
+        <v>0.7110532407407407</v>
+      </c>
+      <c r="D53" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E53" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F53" s="54" t="n"/>
+      <c r="G53" s="54" t="n"/>
+      <c r="H53" s="54" t="inlineStr">
+        <is>
+          <t>ZAMS-AC01-002</t>
+        </is>
+      </c>
+      <c r="I53" s="54" t="inlineStr">
+        <is>
+          <t>항공기 / BFE</t>
+        </is>
+      </c>
+      <c r="J53" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L53" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="54" t="inlineStr">
+        <is>
+          <t>AA220110</t>
+        </is>
+      </c>
+      <c r="B54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="C54" s="55" t="n">
+        <v>0.6093055555555555</v>
+      </c>
+      <c r="D54" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E54" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F54" s="54" t="n"/>
+      <c r="G54" s="54" t="n"/>
+      <c r="H54" s="54" t="inlineStr">
+        <is>
+          <t>Z_COMMONID_MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="I54" s="54" t="n"/>
+      <c r="J54" s="54" t="inlineStr">
+        <is>
+          <t>PFCG</t>
+        </is>
+      </c>
+      <c r="K54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="L54" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="54" t="inlineStr">
+        <is>
+          <t>AA236778</t>
+        </is>
+      </c>
+      <c r="B55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C55" s="55" t="n">
+        <v>0.4008680555555555</v>
+      </c>
+      <c r="D55" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E55" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F55" s="54" t="n"/>
+      <c r="G55" s="54" t="n"/>
+      <c r="H55" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I55" s="54" t="n"/>
+      <c r="J55" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L55" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="54" t="inlineStr">
+        <is>
+          <t>AA251644</t>
+        </is>
+      </c>
+      <c r="B56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="C56" s="55" t="n">
+        <v>0.4179050925925926</v>
+      </c>
+      <c r="D56" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E56" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F56" s="54" t="n"/>
+      <c r="G56" s="54" t="n"/>
+      <c r="H56" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I56" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J56" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="L56" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="54" t="inlineStr">
+        <is>
+          <t>AA258842</t>
+        </is>
+      </c>
+      <c r="B57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="C57" s="55" t="n">
+        <v>0.6103009259259259</v>
+      </c>
+      <c r="D57" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E57" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F57" s="54" t="n"/>
+      <c r="G57" s="54" t="n"/>
+      <c r="H57" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I57" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J57" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="L57" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="54" t="inlineStr">
+        <is>
+          <t>AA258996</t>
+        </is>
+      </c>
+      <c r="B58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="C58" s="55" t="n">
+        <v>0.4435069444444444</v>
+      </c>
+      <c r="D58" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E58" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F58" s="54" t="n"/>
+      <c r="G58" s="54" t="n"/>
+      <c r="H58" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA10-010</t>
+        </is>
+      </c>
+      <c r="I58" s="54" t="inlineStr">
+        <is>
+          <t>MIDAS Master</t>
+        </is>
+      </c>
+      <c r="J58" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="L58" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="54" t="inlineStr">
+        <is>
+          <t>AA259101</t>
+        </is>
+      </c>
+      <c r="B59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="C59" s="55" t="n">
+        <v>0.6574652777777777</v>
+      </c>
+      <c r="D59" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E59" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F59" s="54" t="n"/>
+      <c r="G59" s="54" t="n"/>
+      <c r="H59" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-ME01-013</t>
+        </is>
+      </c>
+      <c r="I59" s="54" t="inlineStr">
+        <is>
+          <t>항공기/엔진 외주수리비 자산화 담당자</t>
+        </is>
+      </c>
+      <c r="J59" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="L59" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="54" t="inlineStr">
+        <is>
+          <t>AA260436</t>
+        </is>
+      </c>
+      <c r="B60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="C60" s="55" t="n">
+        <v>0.4691435185185185</v>
+      </c>
+      <c r="D60" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E60" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F60" s="54" t="n"/>
+      <c r="G60" s="54" t="n"/>
+      <c r="H60" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-010</t>
+        </is>
+      </c>
+      <c r="I60" s="54" t="inlineStr">
+        <is>
+          <t>Common User</t>
+        </is>
+      </c>
+      <c r="J60" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="L60" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="54" t="inlineStr">
+        <is>
+          <t>AA262802</t>
+        </is>
+      </c>
+      <c r="B61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C61" s="55" t="n">
+        <v>0.5523842592592593</v>
+      </c>
+      <c r="D61" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E61" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F61" s="54" t="n"/>
+      <c r="G61" s="54" t="n"/>
+      <c r="H61" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-010</t>
+        </is>
+      </c>
+      <c r="I61" s="54" t="n"/>
+      <c r="J61" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L61" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="54" t="inlineStr">
+        <is>
+          <t>AA263006</t>
+        </is>
+      </c>
+      <c r="B62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="C62" s="55" t="n">
+        <v>0.7208564814814815</v>
+      </c>
+      <c r="D62" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E62" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F62" s="54" t="n"/>
+      <c r="G62" s="54" t="n"/>
+      <c r="H62" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-010</t>
+        </is>
+      </c>
+      <c r="I62" s="54" t="n"/>
+      <c r="J62" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="L62" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="54" t="inlineStr">
+        <is>
+          <t>AA263236</t>
+        </is>
+      </c>
+      <c r="B63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C63" s="55" t="n">
+        <v>0.6673263888888888</v>
+      </c>
+      <c r="D63" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E63" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F63" s="54" t="n"/>
+      <c r="G63" s="54" t="n"/>
+      <c r="H63" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-002</t>
+        </is>
+      </c>
+      <c r="I63" s="54" t="inlineStr">
+        <is>
+          <t>Fixed asset - power user</t>
+        </is>
+      </c>
+      <c r="J63" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L63" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="54" t="inlineStr">
+        <is>
+          <t>AA263878</t>
+        </is>
+      </c>
+      <c r="B64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="C64" s="55" t="n">
+        <v>0.6350810185185185</v>
+      </c>
+      <c r="D64" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E64" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F64" s="54" t="n"/>
+      <c r="G64" s="54" t="n"/>
+      <c r="H64" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PA900-900</t>
+        </is>
+      </c>
+      <c r="I64" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
+        </is>
+      </c>
+      <c r="J64" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="L64" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="54" t="inlineStr">
+        <is>
+          <t>AA263906</t>
+        </is>
+      </c>
+      <c r="B65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C65" s="55" t="n">
+        <v>0.7181712962962963</v>
+      </c>
+      <c r="D65" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E65" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F65" s="54" t="n"/>
+      <c r="G65" s="54" t="n"/>
+      <c r="H65" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I65" s="54" t="n"/>
+      <c r="J65" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L65" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="54" t="inlineStr">
+        <is>
+          <t>AA631925</t>
+        </is>
+      </c>
+      <c r="B66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="C66" s="55" t="n">
+        <v>0.4579745370370371</v>
+      </c>
+      <c r="D66" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E66" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F66" s="54" t="n"/>
+      <c r="G66" s="54" t="n"/>
+      <c r="H66" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PE520-000-H5</t>
+        </is>
+      </c>
+      <c r="I66" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
+        </is>
+      </c>
+      <c r="J66" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="L66" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR03</t>
+        </is>
+      </c>
+      <c r="B67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="C67" s="55" t="n">
+        <v>0.4067939814814815</v>
+      </c>
+      <c r="D67" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E67" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F67" s="54" t="n"/>
+      <c r="G67" s="54" t="n"/>
+      <c r="H67" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-PL01-001</t>
+        </is>
+      </c>
+      <c r="I67" s="54" t="inlineStr">
+        <is>
+          <t>[비용예산] KEY USER</t>
+        </is>
+      </c>
+      <c r="J67" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="L67" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR08</t>
+        </is>
+      </c>
+      <c r="B68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="C68" s="55" t="n">
+        <v>0.5673495370370371</v>
+      </c>
+      <c r="D68" s="54" t="inlineStr">
+        <is>
+          <t>AA164331</t>
+        </is>
+      </c>
+      <c r="E68" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F68" s="54" t="n"/>
+      <c r="G68" s="54" t="n"/>
+      <c r="H68" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-011</t>
+        </is>
+      </c>
+      <c r="I68" s="54" t="inlineStr">
+        <is>
+          <t>Role for Data Maint.(APP Only)</t>
+        </is>
+      </c>
+      <c r="J68" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="L68" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
         </is>
       </c>
     </row>
@@ -22054,14 +23226,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>DB 패스워드</t>
+          <t>OS 접근권한 승인</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>오라클</t>
+          <t>Unix</t>
         </is>
       </c>
     </row>
@@ -23305,7 +24477,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -23313,14 +24485,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>DB 관리자 권한 제한</t>
+          <t>OS 패스워드</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>오라클</t>
+          <t>Unix</t>
         </is>
       </c>
     </row>
@@ -24572,7 +25744,7 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>OS 접근권한 승인</t>
+          <t>OS 관리자 권한 제한</t>
         </is>
       </c>
     </row>
@@ -25831,14 +27003,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>OS 패스워드</t>
+          <t>프로그램 변경 승인</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Unix</t>
+          <t>ETC</t>
         </is>
       </c>
     </row>
@@ -27090,14 +28262,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>OS 관리자 권한 제한</t>
+          <t>개발/운영 환경 분리</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Unix</t>
+          <t>ETC</t>
         </is>
       </c>
     </row>
@@ -28349,14 +29521,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>프로그램 변경 승인</t>
+          <t>이관담당자 권한 제한</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>ETC</t>
         </is>
       </c>
     </row>
@@ -29608,14 +30780,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>개발/운영 환경 분리</t>
+          <t>인프라 설정 변경_DB</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Oracle</t>
         </is>
       </c>
     </row>
@@ -30851,7 +32023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -30863,11 +32035,26 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="81.25" customWidth="1" style="58" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>아래와 같이 당기 권한 부여 이력 데이터와 화면 캡쳐</t>
+          <t>아래 쿼리 실행 후 데이터와 화면 캡쳐 결과</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="99" customHeight="1" s="58">
+      <c r="A3" s="52" t="inlineStr">
+        <is>
+          <t>SELECT *
+FROM  fnd_user fu
+          fnd_user_resp_groups_direct furg
+          fnd_responsibility fr
+WEHRE fu.user_id = furg.user_id
+AND    furg.responsibility_id = fr.responsibility_id</t>
         </is>
       </c>
     </row>
@@ -32099,7 +33286,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32120,14 +33306,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>이관담당자 권한 제한</t>
+          <t>인프라 설정 변경_OS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Unix</t>
         </is>
       </c>
     </row>
@@ -33363,2524 +34549,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>인프라 설정 변경_DB</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="56" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="B45" s="56" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C45" s="56" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D45" s="57" t="inlineStr">
-        <is>
-          <t>Changed By</t>
-        </is>
-      </c>
-      <c r="E45" s="57" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="F45" s="57" t="inlineStr">
-        <is>
-          <t>Old value</t>
-        </is>
-      </c>
-      <c r="G45" s="57" t="inlineStr">
-        <is>
-          <t>Text for the Old Value</t>
-        </is>
-      </c>
-      <c r="H45" s="57" t="inlineStr">
-        <is>
-          <t>New value</t>
-        </is>
-      </c>
-      <c r="I45" s="57" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="J45" s="57" t="inlineStr">
-        <is>
-          <t>TCode</t>
-        </is>
-      </c>
-      <c r="K45" s="57" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="L45" s="57" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="54" t="inlineStr">
-        <is>
-          <t>AA115767</t>
-        </is>
-      </c>
-      <c r="B46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="C46" s="55" t="n">
-        <v>0.5591087962962963</v>
-      </c>
-      <c r="D46" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E46" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F46" s="54" t="n"/>
-      <c r="G46" s="54" t="n"/>
-      <c r="H46" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-007</t>
-        </is>
-      </c>
-      <c r="I46" s="54" t="n"/>
-      <c r="J46" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="L46" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="54" t="inlineStr">
-        <is>
-          <t>AA142616</t>
-        </is>
-      </c>
-      <c r="B47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="C47" s="55" t="n">
-        <v>0.4214930555555556</v>
-      </c>
-      <c r="D47" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E47" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F47" s="54" t="n"/>
-      <c r="G47" s="54" t="n"/>
-      <c r="H47" s="54" t="inlineStr">
-        <is>
-          <t>ZAA-GENL-001</t>
-        </is>
-      </c>
-      <c r="I47" s="54" t="inlineStr">
-        <is>
-          <t>정비부문 공통 Transaction</t>
-        </is>
-      </c>
-      <c r="J47" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="L47" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="54" t="inlineStr">
-        <is>
-          <t>AA170547</t>
-        </is>
-      </c>
-      <c r="B48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C48" s="55" t="n">
-        <v>0.7181597222222222</v>
-      </c>
-      <c r="D48" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E48" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F48" s="54" t="n"/>
-      <c r="G48" s="54" t="n"/>
-      <c r="H48" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I48" s="54" t="n"/>
-      <c r="J48" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L48" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="54" t="inlineStr">
-        <is>
-          <t>AA176250</t>
-        </is>
-      </c>
-      <c r="B49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="C49" s="55" t="n">
-        <v>0.3433449074074074</v>
-      </c>
-      <c r="D49" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E49" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F49" s="54" t="n"/>
-      <c r="G49" s="54" t="n"/>
-      <c r="H49" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-ME01-025</t>
-        </is>
-      </c>
-      <c r="I49" s="54" t="inlineStr">
-        <is>
-          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
-        </is>
-      </c>
-      <c r="J49" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="L49" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="54" t="inlineStr">
-        <is>
-          <t>AA181168</t>
-        </is>
-      </c>
-      <c r="B50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="C50" s="55" t="n">
-        <v>0.3649189814814815</v>
-      </c>
-      <c r="D50" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E50" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F50" s="54" t="n"/>
-      <c r="G50" s="54" t="n"/>
-      <c r="H50" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-016</t>
-        </is>
-      </c>
-      <c r="I50" s="54" t="inlineStr">
-        <is>
-          <t>Interface Display</t>
-        </is>
-      </c>
-      <c r="J50" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="L50" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="54" t="inlineStr">
-        <is>
-          <t>AA199530</t>
-        </is>
-      </c>
-      <c r="B51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="C51" s="55" t="n">
-        <v>0.3940046296296296</v>
-      </c>
-      <c r="D51" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E51" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F51" s="54" t="n"/>
-      <c r="G51" s="54" t="n"/>
-      <c r="H51" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-MQ-001</t>
-        </is>
-      </c>
-      <c r="I51" s="54" t="inlineStr">
-        <is>
-          <t>MQ 인가공급업체 관리</t>
-        </is>
-      </c>
-      <c r="J51" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="L51" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="54" t="inlineStr">
-        <is>
-          <t>AA208665</t>
-        </is>
-      </c>
-      <c r="B52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="C52" s="55" t="n">
-        <v>0.6525925925925926</v>
-      </c>
-      <c r="D52" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E52" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F52" s="54" t="n"/>
-      <c r="G52" s="54" t="n"/>
-      <c r="H52" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-EP000-000-M5</t>
-        </is>
-      </c>
-      <c r="I52" s="54" t="n"/>
-      <c r="J52" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="L52" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="54" t="inlineStr">
-        <is>
-          <t>AA216786</t>
-        </is>
-      </c>
-      <c r="B53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C53" s="55" t="n">
-        <v>0.7110532407407407</v>
-      </c>
-      <c r="D53" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E53" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F53" s="54" t="n"/>
-      <c r="G53" s="54" t="n"/>
-      <c r="H53" s="54" t="inlineStr">
-        <is>
-          <t>ZAMS-AC01-002</t>
-        </is>
-      </c>
-      <c r="I53" s="54" t="inlineStr">
-        <is>
-          <t>항공기 / BFE</t>
-        </is>
-      </c>
-      <c r="J53" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L53" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="54" t="inlineStr">
-        <is>
-          <t>AA220110</t>
-        </is>
-      </c>
-      <c r="B54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="C54" s="55" t="n">
-        <v>0.6093055555555555</v>
-      </c>
-      <c r="D54" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E54" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F54" s="54" t="n"/>
-      <c r="G54" s="54" t="n"/>
-      <c r="H54" s="54" t="inlineStr">
-        <is>
-          <t>Z_COMMONID_MANAGEMENT</t>
-        </is>
-      </c>
-      <c r="I54" s="54" t="n"/>
-      <c r="J54" s="54" t="inlineStr">
-        <is>
-          <t>PFCG</t>
-        </is>
-      </c>
-      <c r="K54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="L54" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="54" t="inlineStr">
-        <is>
-          <t>AA236778</t>
-        </is>
-      </c>
-      <c r="B55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C55" s="55" t="n">
-        <v>0.4008680555555555</v>
-      </c>
-      <c r="D55" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E55" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F55" s="54" t="n"/>
-      <c r="G55" s="54" t="n"/>
-      <c r="H55" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I55" s="54" t="n"/>
-      <c r="J55" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L55" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="54" t="inlineStr">
-        <is>
-          <t>AA251644</t>
-        </is>
-      </c>
-      <c r="B56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="C56" s="55" t="n">
-        <v>0.4179050925925926</v>
-      </c>
-      <c r="D56" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E56" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F56" s="54" t="n"/>
-      <c r="G56" s="54" t="n"/>
-      <c r="H56" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I56" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J56" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="L56" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="54" t="inlineStr">
-        <is>
-          <t>AA258842</t>
-        </is>
-      </c>
-      <c r="B57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="C57" s="55" t="n">
-        <v>0.6103009259259259</v>
-      </c>
-      <c r="D57" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E57" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F57" s="54" t="n"/>
-      <c r="G57" s="54" t="n"/>
-      <c r="H57" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I57" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J57" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="L57" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="54" t="inlineStr">
-        <is>
-          <t>AA258996</t>
-        </is>
-      </c>
-      <c r="B58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="C58" s="55" t="n">
-        <v>0.4435069444444444</v>
-      </c>
-      <c r="D58" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E58" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F58" s="54" t="n"/>
-      <c r="G58" s="54" t="n"/>
-      <c r="H58" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA10-010</t>
-        </is>
-      </c>
-      <c r="I58" s="54" t="inlineStr">
-        <is>
-          <t>MIDAS Master</t>
-        </is>
-      </c>
-      <c r="J58" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="L58" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="54" t="inlineStr">
-        <is>
-          <t>AA259101</t>
-        </is>
-      </c>
-      <c r="B59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="C59" s="55" t="n">
-        <v>0.6574652777777777</v>
-      </c>
-      <c r="D59" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E59" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F59" s="54" t="n"/>
-      <c r="G59" s="54" t="n"/>
-      <c r="H59" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-ME01-013</t>
-        </is>
-      </c>
-      <c r="I59" s="54" t="inlineStr">
-        <is>
-          <t>항공기/엔진 외주수리비 자산화 담당자</t>
-        </is>
-      </c>
-      <c r="J59" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="L59" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="54" t="inlineStr">
-        <is>
-          <t>AA260436</t>
-        </is>
-      </c>
-      <c r="B60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="C60" s="55" t="n">
-        <v>0.4691435185185185</v>
-      </c>
-      <c r="D60" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E60" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F60" s="54" t="n"/>
-      <c r="G60" s="54" t="n"/>
-      <c r="H60" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-010</t>
-        </is>
-      </c>
-      <c r="I60" s="54" t="inlineStr">
-        <is>
-          <t>Common User</t>
-        </is>
-      </c>
-      <c r="J60" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="L60" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="54" t="inlineStr">
-        <is>
-          <t>AA262802</t>
-        </is>
-      </c>
-      <c r="B61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C61" s="55" t="n">
-        <v>0.5523842592592593</v>
-      </c>
-      <c r="D61" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E61" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F61" s="54" t="n"/>
-      <c r="G61" s="54" t="n"/>
-      <c r="H61" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-010</t>
-        </is>
-      </c>
-      <c r="I61" s="54" t="n"/>
-      <c r="J61" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L61" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="54" t="inlineStr">
-        <is>
-          <t>AA263006</t>
-        </is>
-      </c>
-      <c r="B62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="C62" s="55" t="n">
-        <v>0.7208564814814815</v>
-      </c>
-      <c r="D62" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E62" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F62" s="54" t="n"/>
-      <c r="G62" s="54" t="n"/>
-      <c r="H62" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-010</t>
-        </is>
-      </c>
-      <c r="I62" s="54" t="n"/>
-      <c r="J62" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="L62" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="54" t="inlineStr">
-        <is>
-          <t>AA263236</t>
-        </is>
-      </c>
-      <c r="B63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C63" s="55" t="n">
-        <v>0.6673263888888888</v>
-      </c>
-      <c r="D63" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E63" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F63" s="54" t="n"/>
-      <c r="G63" s="54" t="n"/>
-      <c r="H63" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-002</t>
-        </is>
-      </c>
-      <c r="I63" s="54" t="inlineStr">
-        <is>
-          <t>Fixed asset - power user</t>
-        </is>
-      </c>
-      <c r="J63" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L63" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="54" t="inlineStr">
-        <is>
-          <t>AA263878</t>
-        </is>
-      </c>
-      <c r="B64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="C64" s="55" t="n">
-        <v>0.6350810185185185</v>
-      </c>
-      <c r="D64" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E64" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F64" s="54" t="n"/>
-      <c r="G64" s="54" t="n"/>
-      <c r="H64" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PA900-900</t>
-        </is>
-      </c>
-      <c r="I64" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
-        </is>
-      </c>
-      <c r="J64" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="L64" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="54" t="inlineStr">
-        <is>
-          <t>AA263906</t>
-        </is>
-      </c>
-      <c r="B65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C65" s="55" t="n">
-        <v>0.7181712962962963</v>
-      </c>
-      <c r="D65" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E65" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F65" s="54" t="n"/>
-      <c r="G65" s="54" t="n"/>
-      <c r="H65" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I65" s="54" t="n"/>
-      <c r="J65" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L65" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="54" t="inlineStr">
-        <is>
-          <t>AA631925</t>
-        </is>
-      </c>
-      <c r="B66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="C66" s="55" t="n">
-        <v>0.4579745370370371</v>
-      </c>
-      <c r="D66" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E66" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F66" s="54" t="n"/>
-      <c r="G66" s="54" t="n"/>
-      <c r="H66" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PE520-000-H5</t>
-        </is>
-      </c>
-      <c r="I66" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
-        </is>
-      </c>
-      <c r="J66" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="L66" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR03</t>
-        </is>
-      </c>
-      <c r="B67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="C67" s="55" t="n">
-        <v>0.4067939814814815</v>
-      </c>
-      <c r="D67" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E67" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F67" s="54" t="n"/>
-      <c r="G67" s="54" t="n"/>
-      <c r="H67" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-PL01-001</t>
-        </is>
-      </c>
-      <c r="I67" s="54" t="inlineStr">
-        <is>
-          <t>[비용예산] KEY USER</t>
-        </is>
-      </c>
-      <c r="J67" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="L67" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR08</t>
-        </is>
-      </c>
-      <c r="B68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="C68" s="55" t="n">
-        <v>0.5673495370370371</v>
-      </c>
-      <c r="D68" s="54" t="inlineStr">
-        <is>
-          <t>AA164331</t>
-        </is>
-      </c>
-      <c r="E68" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F68" s="54" t="n"/>
-      <c r="G68" s="54" t="n"/>
-      <c r="H68" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-011</t>
-        </is>
-      </c>
-      <c r="I68" s="54" t="inlineStr">
-        <is>
-          <t>Role for Data Maint.(APP Only)</t>
-        </is>
-      </c>
-      <c r="J68" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="L68" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>인프라 설정 변경_OS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Unix</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="56" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="B45" s="56" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C45" s="56" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D45" s="57" t="inlineStr">
-        <is>
-          <t>Changed By</t>
-        </is>
-      </c>
-      <c r="E45" s="57" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="F45" s="57" t="inlineStr">
-        <is>
-          <t>Old value</t>
-        </is>
-      </c>
-      <c r="G45" s="57" t="inlineStr">
-        <is>
-          <t>Text for the Old Value</t>
-        </is>
-      </c>
-      <c r="H45" s="57" t="inlineStr">
-        <is>
-          <t>New value</t>
-        </is>
-      </c>
-      <c r="I45" s="57" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="J45" s="57" t="inlineStr">
-        <is>
-          <t>TCode</t>
-        </is>
-      </c>
-      <c r="K45" s="57" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="L45" s="57" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="54" t="inlineStr">
-        <is>
-          <t>AA115767</t>
-        </is>
-      </c>
-      <c r="B46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="C46" s="55" t="n">
-        <v>0.5591087962962963</v>
-      </c>
-      <c r="D46" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E46" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F46" s="54" t="n"/>
-      <c r="G46" s="54" t="n"/>
-      <c r="H46" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-007</t>
-        </is>
-      </c>
-      <c r="I46" s="54" t="n"/>
-      <c r="J46" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="L46" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="54" t="inlineStr">
-        <is>
-          <t>AA142616</t>
-        </is>
-      </c>
-      <c r="B47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="C47" s="55" t="n">
-        <v>0.4214930555555556</v>
-      </c>
-      <c r="D47" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E47" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F47" s="54" t="n"/>
-      <c r="G47" s="54" t="n"/>
-      <c r="H47" s="54" t="inlineStr">
-        <is>
-          <t>ZAA-GENL-001</t>
-        </is>
-      </c>
-      <c r="I47" s="54" t="inlineStr">
-        <is>
-          <t>정비부문 공통 Transaction</t>
-        </is>
-      </c>
-      <c r="J47" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="L47" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="54" t="inlineStr">
-        <is>
-          <t>AA170547</t>
-        </is>
-      </c>
-      <c r="B48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C48" s="55" t="n">
-        <v>0.7181597222222222</v>
-      </c>
-      <c r="D48" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E48" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F48" s="54" t="n"/>
-      <c r="G48" s="54" t="n"/>
-      <c r="H48" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I48" s="54" t="n"/>
-      <c r="J48" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L48" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="54" t="inlineStr">
-        <is>
-          <t>AA176250</t>
-        </is>
-      </c>
-      <c r="B49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="C49" s="55" t="n">
-        <v>0.3433449074074074</v>
-      </c>
-      <c r="D49" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E49" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F49" s="54" t="n"/>
-      <c r="G49" s="54" t="n"/>
-      <c r="H49" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-ME01-025</t>
-        </is>
-      </c>
-      <c r="I49" s="54" t="inlineStr">
-        <is>
-          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
-        </is>
-      </c>
-      <c r="J49" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="L49" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="54" t="inlineStr">
-        <is>
-          <t>AA181168</t>
-        </is>
-      </c>
-      <c r="B50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="C50" s="55" t="n">
-        <v>0.3649189814814815</v>
-      </c>
-      <c r="D50" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E50" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F50" s="54" t="n"/>
-      <c r="G50" s="54" t="n"/>
-      <c r="H50" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-016</t>
-        </is>
-      </c>
-      <c r="I50" s="54" t="inlineStr">
-        <is>
-          <t>Interface Display</t>
-        </is>
-      </c>
-      <c r="J50" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="L50" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="54" t="inlineStr">
-        <is>
-          <t>AA199530</t>
-        </is>
-      </c>
-      <c r="B51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="C51" s="55" t="n">
-        <v>0.3940046296296296</v>
-      </c>
-      <c r="D51" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E51" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F51" s="54" t="n"/>
-      <c r="G51" s="54" t="n"/>
-      <c r="H51" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-MQ-001</t>
-        </is>
-      </c>
-      <c r="I51" s="54" t="inlineStr">
-        <is>
-          <t>MQ 인가공급업체 관리</t>
-        </is>
-      </c>
-      <c r="J51" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="L51" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="54" t="inlineStr">
-        <is>
-          <t>AA208665</t>
-        </is>
-      </c>
-      <c r="B52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="C52" s="55" t="n">
-        <v>0.6525925925925926</v>
-      </c>
-      <c r="D52" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E52" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F52" s="54" t="n"/>
-      <c r="G52" s="54" t="n"/>
-      <c r="H52" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-EP000-000-M5</t>
-        </is>
-      </c>
-      <c r="I52" s="54" t="n"/>
-      <c r="J52" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="L52" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="54" t="inlineStr">
-        <is>
-          <t>AA216786</t>
-        </is>
-      </c>
-      <c r="B53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C53" s="55" t="n">
-        <v>0.7110532407407407</v>
-      </c>
-      <c r="D53" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E53" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F53" s="54" t="n"/>
-      <c r="G53" s="54" t="n"/>
-      <c r="H53" s="54" t="inlineStr">
-        <is>
-          <t>ZAMS-AC01-002</t>
-        </is>
-      </c>
-      <c r="I53" s="54" t="inlineStr">
-        <is>
-          <t>항공기 / BFE</t>
-        </is>
-      </c>
-      <c r="J53" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L53" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="54" t="inlineStr">
-        <is>
-          <t>AA220110</t>
-        </is>
-      </c>
-      <c r="B54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="C54" s="55" t="n">
-        <v>0.6093055555555555</v>
-      </c>
-      <c r="D54" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E54" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F54" s="54" t="n"/>
-      <c r="G54" s="54" t="n"/>
-      <c r="H54" s="54" t="inlineStr">
-        <is>
-          <t>Z_COMMONID_MANAGEMENT</t>
-        </is>
-      </c>
-      <c r="I54" s="54" t="n"/>
-      <c r="J54" s="54" t="inlineStr">
-        <is>
-          <t>PFCG</t>
-        </is>
-      </c>
-      <c r="K54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="L54" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="54" t="inlineStr">
-        <is>
-          <t>AA236778</t>
-        </is>
-      </c>
-      <c r="B55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C55" s="55" t="n">
-        <v>0.4008680555555555</v>
-      </c>
-      <c r="D55" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E55" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F55" s="54" t="n"/>
-      <c r="G55" s="54" t="n"/>
-      <c r="H55" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I55" s="54" t="n"/>
-      <c r="J55" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L55" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="54" t="inlineStr">
-        <is>
-          <t>AA251644</t>
-        </is>
-      </c>
-      <c r="B56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="C56" s="55" t="n">
-        <v>0.4179050925925926</v>
-      </c>
-      <c r="D56" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E56" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F56" s="54" t="n"/>
-      <c r="G56" s="54" t="n"/>
-      <c r="H56" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I56" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J56" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="L56" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="54" t="inlineStr">
-        <is>
-          <t>AA258842</t>
-        </is>
-      </c>
-      <c r="B57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="C57" s="55" t="n">
-        <v>0.6103009259259259</v>
-      </c>
-      <c r="D57" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E57" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F57" s="54" t="n"/>
-      <c r="G57" s="54" t="n"/>
-      <c r="H57" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I57" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J57" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="L57" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="54" t="inlineStr">
-        <is>
-          <t>AA258996</t>
-        </is>
-      </c>
-      <c r="B58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="C58" s="55" t="n">
-        <v>0.4435069444444444</v>
-      </c>
-      <c r="D58" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E58" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F58" s="54" t="n"/>
-      <c r="G58" s="54" t="n"/>
-      <c r="H58" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA10-010</t>
-        </is>
-      </c>
-      <c r="I58" s="54" t="inlineStr">
-        <is>
-          <t>MIDAS Master</t>
-        </is>
-      </c>
-      <c r="J58" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="L58" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="54" t="inlineStr">
-        <is>
-          <t>AA259101</t>
-        </is>
-      </c>
-      <c r="B59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="C59" s="55" t="n">
-        <v>0.6574652777777777</v>
-      </c>
-      <c r="D59" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E59" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F59" s="54" t="n"/>
-      <c r="G59" s="54" t="n"/>
-      <c r="H59" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-ME01-013</t>
-        </is>
-      </c>
-      <c r="I59" s="54" t="inlineStr">
-        <is>
-          <t>항공기/엔진 외주수리비 자산화 담당자</t>
-        </is>
-      </c>
-      <c r="J59" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="L59" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="54" t="inlineStr">
-        <is>
-          <t>AA260436</t>
-        </is>
-      </c>
-      <c r="B60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="C60" s="55" t="n">
-        <v>0.4691435185185185</v>
-      </c>
-      <c r="D60" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E60" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F60" s="54" t="n"/>
-      <c r="G60" s="54" t="n"/>
-      <c r="H60" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-010</t>
-        </is>
-      </c>
-      <c r="I60" s="54" t="inlineStr">
-        <is>
-          <t>Common User</t>
-        </is>
-      </c>
-      <c r="J60" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="L60" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="54" t="inlineStr">
-        <is>
-          <t>AA262802</t>
-        </is>
-      </c>
-      <c r="B61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C61" s="55" t="n">
-        <v>0.5523842592592593</v>
-      </c>
-      <c r="D61" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E61" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F61" s="54" t="n"/>
-      <c r="G61" s="54" t="n"/>
-      <c r="H61" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-010</t>
-        </is>
-      </c>
-      <c r="I61" s="54" t="n"/>
-      <c r="J61" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L61" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="54" t="inlineStr">
-        <is>
-          <t>AA263006</t>
-        </is>
-      </c>
-      <c r="B62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="C62" s="55" t="n">
-        <v>0.7208564814814815</v>
-      </c>
-      <c r="D62" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E62" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F62" s="54" t="n"/>
-      <c r="G62" s="54" t="n"/>
-      <c r="H62" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-010</t>
-        </is>
-      </c>
-      <c r="I62" s="54" t="n"/>
-      <c r="J62" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="L62" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="54" t="inlineStr">
-        <is>
-          <t>AA263236</t>
-        </is>
-      </c>
-      <c r="B63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C63" s="55" t="n">
-        <v>0.6673263888888888</v>
-      </c>
-      <c r="D63" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E63" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F63" s="54" t="n"/>
-      <c r="G63" s="54" t="n"/>
-      <c r="H63" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-002</t>
-        </is>
-      </c>
-      <c r="I63" s="54" t="inlineStr">
-        <is>
-          <t>Fixed asset - power user</t>
-        </is>
-      </c>
-      <c r="J63" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L63" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="54" t="inlineStr">
-        <is>
-          <t>AA263878</t>
-        </is>
-      </c>
-      <c r="B64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="C64" s="55" t="n">
-        <v>0.6350810185185185</v>
-      </c>
-      <c r="D64" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E64" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F64" s="54" t="n"/>
-      <c r="G64" s="54" t="n"/>
-      <c r="H64" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PA900-900</t>
-        </is>
-      </c>
-      <c r="I64" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
-        </is>
-      </c>
-      <c r="J64" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="L64" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="54" t="inlineStr">
-        <is>
-          <t>AA263906</t>
-        </is>
-      </c>
-      <c r="B65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C65" s="55" t="n">
-        <v>0.7181712962962963</v>
-      </c>
-      <c r="D65" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E65" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F65" s="54" t="n"/>
-      <c r="G65" s="54" t="n"/>
-      <c r="H65" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I65" s="54" t="n"/>
-      <c r="J65" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L65" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="54" t="inlineStr">
-        <is>
-          <t>AA631925</t>
-        </is>
-      </c>
-      <c r="B66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="C66" s="55" t="n">
-        <v>0.4579745370370371</v>
-      </c>
-      <c r="D66" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E66" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F66" s="54" t="n"/>
-      <c r="G66" s="54" t="n"/>
-      <c r="H66" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PE520-000-H5</t>
-        </is>
-      </c>
-      <c r="I66" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
-        </is>
-      </c>
-      <c r="J66" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="L66" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR03</t>
-        </is>
-      </c>
-      <c r="B67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="C67" s="55" t="n">
-        <v>0.4067939814814815</v>
-      </c>
-      <c r="D67" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E67" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F67" s="54" t="n"/>
-      <c r="G67" s="54" t="n"/>
-      <c r="H67" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-PL01-001</t>
-        </is>
-      </c>
-      <c r="I67" s="54" t="inlineStr">
-        <is>
-          <t>[비용예산] KEY USER</t>
-        </is>
-      </c>
-      <c r="J67" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="L67" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR08</t>
-        </is>
-      </c>
-      <c r="B68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="C68" s="55" t="n">
-        <v>0.5673495370370371</v>
-      </c>
-      <c r="D68" s="54" t="inlineStr">
-        <is>
-          <t>AA164331</t>
-        </is>
-      </c>
-      <c r="E68" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F68" s="54" t="n"/>
-      <c r="G68" s="54" t="n"/>
-      <c r="H68" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-011</t>
-        </is>
-      </c>
-      <c r="I68" s="54" t="inlineStr">
-        <is>
-          <t>Role for Data Maint.(APP Only)</t>
-        </is>
-      </c>
-      <c r="J68" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="L68" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35904,7 +34572,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Oracle</t>
         </is>
       </c>
     </row>
@@ -37139,7 +35807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37148,7 +35816,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -37163,7 +35831,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Oracle</t>
         </is>
       </c>
     </row>
@@ -38398,7 +37066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40938,7 +39606,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -40953,7 +39621,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Oracle</t>
         </is>
       </c>
     </row>
@@ -43446,10 +42114,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -43461,8 +42129,12 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="53" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -44735,7 +43407,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -44743,14 +43415,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>데이터 변경 승인</t>
+          <t>데이터 변경 권한 제한</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>기본</t>
         </is>
       </c>
     </row>

--- a/삼성중공업_pbc.xlsx
+++ b/삼성중공업_pbc.xlsx
@@ -14,31 +14,33 @@
     <sheet name="APD05" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="APD06" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="APD07" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="APD08" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="APD09" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="APD10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="APD11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="APD12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="APD13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="APD14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="PC01" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="PC04" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="PC05" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="PC06" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="PC07" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="CO01" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="CO02" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="PD01" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="APD071" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="APD08" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="APD081" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="APD09" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="APD10" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="APD11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="APD12" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="APD13" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="APD14" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="PC01" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="PC04" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="PC05" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="PC06" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="PC07" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="CO01" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="CO02" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="PD01" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
     <externalReference r:id="rId26"/>
     <externalReference r:id="rId27"/>
     <externalReference r:id="rId28"/>
     <externalReference r:id="rId29"/>
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
+    <externalReference r:id="rId32"/>
+    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="_">#REF!</definedName>
@@ -8721,18 +8723,70 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>14</col>
+      <colOff>371475</colOff>
+      <row>42</row>
+      <rowOff>95555</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="그림 2"/>
+        <cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill rotWithShape="1">
+        <a:blip r:embed="rId1"/>
+        <a:srcRect b="4093"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm>
+          <a:off x="0" y="628650"/>
+          <a:ext cx="9972675" cy="8268005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
     <to>
-      <col>19</col>
-      <colOff>214359</colOff>
-      <row>43</row>
-      <rowOff>143796</rowOff>
+      <col>11</col>
+      <colOff>47625</colOff>
+      <row>34</row>
+      <rowOff>134305</rowOff>
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="그림 3"/>
+        <cNvPr id="8" name="그림 7"/>
         <cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
@@ -8746,7 +8800,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="0" y="419100"/>
-          <a:ext cx="13244559" cy="8735346"/>
+          <a:ext cx="7591425" cy="6839905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -19791,7 +19845,7 @@
       <c r="A5" s="13" t="n"/>
       <c r="B5" s="16" t="inlineStr">
         <is>
-          <t>자료 회신 요청: 2024-04-12</t>
+          <t>자료 회신 요청: 2024-04-16</t>
         </is>
       </c>
       <c r="C5" s="27" t="n"/>
@@ -20659,6 +20713,1298 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>데이터 변경 권한 제한</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>기본</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B45" s="56" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C45" s="56" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D45" s="57" t="inlineStr">
+        <is>
+          <t>Changed By</t>
+        </is>
+      </c>
+      <c r="E45" s="57" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F45" s="57" t="inlineStr">
+        <is>
+          <t>Old value</t>
+        </is>
+      </c>
+      <c r="G45" s="57" t="inlineStr">
+        <is>
+          <t>Text for the Old Value</t>
+        </is>
+      </c>
+      <c r="H45" s="57" t="inlineStr">
+        <is>
+          <t>New value</t>
+        </is>
+      </c>
+      <c r="I45" s="57" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="J45" s="57" t="inlineStr">
+        <is>
+          <t>TCode</t>
+        </is>
+      </c>
+      <c r="K45" s="57" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="L45" s="57" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="54" t="inlineStr">
+        <is>
+          <t>AA115767</t>
+        </is>
+      </c>
+      <c r="B46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>0.5591087962962963</v>
+      </c>
+      <c r="D46" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E46" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F46" s="54" t="n"/>
+      <c r="G46" s="54" t="n"/>
+      <c r="H46" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-007</t>
+        </is>
+      </c>
+      <c r="I46" s="54" t="n"/>
+      <c r="J46" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="L46" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="54" t="inlineStr">
+        <is>
+          <t>AA142616</t>
+        </is>
+      </c>
+      <c r="B47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="C47" s="55" t="n">
+        <v>0.4214930555555556</v>
+      </c>
+      <c r="D47" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E47" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F47" s="54" t="n"/>
+      <c r="G47" s="54" t="n"/>
+      <c r="H47" s="54" t="inlineStr">
+        <is>
+          <t>ZAA-GENL-001</t>
+        </is>
+      </c>
+      <c r="I47" s="54" t="inlineStr">
+        <is>
+          <t>정비부문 공통 Transaction</t>
+        </is>
+      </c>
+      <c r="J47" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="L47" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="54" t="inlineStr">
+        <is>
+          <t>AA170547</t>
+        </is>
+      </c>
+      <c r="B48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C48" s="55" t="n">
+        <v>0.7181597222222222</v>
+      </c>
+      <c r="D48" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E48" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F48" s="54" t="n"/>
+      <c r="G48" s="54" t="n"/>
+      <c r="H48" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I48" s="54" t="n"/>
+      <c r="J48" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L48" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="54" t="inlineStr">
+        <is>
+          <t>AA176250</t>
+        </is>
+      </c>
+      <c r="B49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="C49" s="55" t="n">
+        <v>0.3433449074074074</v>
+      </c>
+      <c r="D49" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E49" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F49" s="54" t="n"/>
+      <c r="G49" s="54" t="n"/>
+      <c r="H49" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-ME01-025</t>
+        </is>
+      </c>
+      <c r="I49" s="54" t="inlineStr">
+        <is>
+          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
+        </is>
+      </c>
+      <c r="J49" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="L49" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="54" t="inlineStr">
+        <is>
+          <t>AA181168</t>
+        </is>
+      </c>
+      <c r="B50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="C50" s="55" t="n">
+        <v>0.3649189814814815</v>
+      </c>
+      <c r="D50" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E50" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F50" s="54" t="n"/>
+      <c r="G50" s="54" t="n"/>
+      <c r="H50" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-016</t>
+        </is>
+      </c>
+      <c r="I50" s="54" t="inlineStr">
+        <is>
+          <t>Interface Display</t>
+        </is>
+      </c>
+      <c r="J50" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="L50" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="54" t="inlineStr">
+        <is>
+          <t>AA199530</t>
+        </is>
+      </c>
+      <c r="B51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="C51" s="55" t="n">
+        <v>0.3940046296296296</v>
+      </c>
+      <c r="D51" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E51" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F51" s="54" t="n"/>
+      <c r="G51" s="54" t="n"/>
+      <c r="H51" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-MQ-001</t>
+        </is>
+      </c>
+      <c r="I51" s="54" t="inlineStr">
+        <is>
+          <t>MQ 인가공급업체 관리</t>
+        </is>
+      </c>
+      <c r="J51" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="L51" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="54" t="inlineStr">
+        <is>
+          <t>AA208665</t>
+        </is>
+      </c>
+      <c r="B52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="C52" s="55" t="n">
+        <v>0.6525925925925926</v>
+      </c>
+      <c r="D52" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E52" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F52" s="54" t="n"/>
+      <c r="G52" s="54" t="n"/>
+      <c r="H52" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-EP000-000-M5</t>
+        </is>
+      </c>
+      <c r="I52" s="54" t="n"/>
+      <c r="J52" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="L52" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="54" t="inlineStr">
+        <is>
+          <t>AA216786</t>
+        </is>
+      </c>
+      <c r="B53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C53" s="55" t="n">
+        <v>0.7110532407407407</v>
+      </c>
+      <c r="D53" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E53" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F53" s="54" t="n"/>
+      <c r="G53" s="54" t="n"/>
+      <c r="H53" s="54" t="inlineStr">
+        <is>
+          <t>ZAMS-AC01-002</t>
+        </is>
+      </c>
+      <c r="I53" s="54" t="inlineStr">
+        <is>
+          <t>항공기 / BFE</t>
+        </is>
+      </c>
+      <c r="J53" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L53" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="54" t="inlineStr">
+        <is>
+          <t>AA220110</t>
+        </is>
+      </c>
+      <c r="B54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="C54" s="55" t="n">
+        <v>0.6093055555555555</v>
+      </c>
+      <c r="D54" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E54" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F54" s="54" t="n"/>
+      <c r="G54" s="54" t="n"/>
+      <c r="H54" s="54" t="inlineStr">
+        <is>
+          <t>Z_COMMONID_MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="I54" s="54" t="n"/>
+      <c r="J54" s="54" t="inlineStr">
+        <is>
+          <t>PFCG</t>
+        </is>
+      </c>
+      <c r="K54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="L54" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="54" t="inlineStr">
+        <is>
+          <t>AA236778</t>
+        </is>
+      </c>
+      <c r="B55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C55" s="55" t="n">
+        <v>0.4008680555555555</v>
+      </c>
+      <c r="D55" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E55" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F55" s="54" t="n"/>
+      <c r="G55" s="54" t="n"/>
+      <c r="H55" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I55" s="54" t="n"/>
+      <c r="J55" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L55" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="54" t="inlineStr">
+        <is>
+          <t>AA251644</t>
+        </is>
+      </c>
+      <c r="B56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="C56" s="55" t="n">
+        <v>0.4179050925925926</v>
+      </c>
+      <c r="D56" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E56" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F56" s="54" t="n"/>
+      <c r="G56" s="54" t="n"/>
+      <c r="H56" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I56" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J56" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="L56" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="54" t="inlineStr">
+        <is>
+          <t>AA258842</t>
+        </is>
+      </c>
+      <c r="B57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="C57" s="55" t="n">
+        <v>0.6103009259259259</v>
+      </c>
+      <c r="D57" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E57" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F57" s="54" t="n"/>
+      <c r="G57" s="54" t="n"/>
+      <c r="H57" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I57" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J57" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="L57" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="54" t="inlineStr">
+        <is>
+          <t>AA258996</t>
+        </is>
+      </c>
+      <c r="B58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="C58" s="55" t="n">
+        <v>0.4435069444444444</v>
+      </c>
+      <c r="D58" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E58" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F58" s="54" t="n"/>
+      <c r="G58" s="54" t="n"/>
+      <c r="H58" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA10-010</t>
+        </is>
+      </c>
+      <c r="I58" s="54" t="inlineStr">
+        <is>
+          <t>MIDAS Master</t>
+        </is>
+      </c>
+      <c r="J58" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="L58" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="54" t="inlineStr">
+        <is>
+          <t>AA259101</t>
+        </is>
+      </c>
+      <c r="B59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="C59" s="55" t="n">
+        <v>0.6574652777777777</v>
+      </c>
+      <c r="D59" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E59" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F59" s="54" t="n"/>
+      <c r="G59" s="54" t="n"/>
+      <c r="H59" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-ME01-013</t>
+        </is>
+      </c>
+      <c r="I59" s="54" t="inlineStr">
+        <is>
+          <t>항공기/엔진 외주수리비 자산화 담당자</t>
+        </is>
+      </c>
+      <c r="J59" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="L59" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="54" t="inlineStr">
+        <is>
+          <t>AA260436</t>
+        </is>
+      </c>
+      <c r="B60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="C60" s="55" t="n">
+        <v>0.4691435185185185</v>
+      </c>
+      <c r="D60" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E60" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F60" s="54" t="n"/>
+      <c r="G60" s="54" t="n"/>
+      <c r="H60" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-010</t>
+        </is>
+      </c>
+      <c r="I60" s="54" t="inlineStr">
+        <is>
+          <t>Common User</t>
+        </is>
+      </c>
+      <c r="J60" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="L60" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="54" t="inlineStr">
+        <is>
+          <t>AA262802</t>
+        </is>
+      </c>
+      <c r="B61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C61" s="55" t="n">
+        <v>0.5523842592592593</v>
+      </c>
+      <c r="D61" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E61" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F61" s="54" t="n"/>
+      <c r="G61" s="54" t="n"/>
+      <c r="H61" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-010</t>
+        </is>
+      </c>
+      <c r="I61" s="54" t="n"/>
+      <c r="J61" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L61" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="54" t="inlineStr">
+        <is>
+          <t>AA263006</t>
+        </is>
+      </c>
+      <c r="B62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="C62" s="55" t="n">
+        <v>0.7208564814814815</v>
+      </c>
+      <c r="D62" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E62" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F62" s="54" t="n"/>
+      <c r="G62" s="54" t="n"/>
+      <c r="H62" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-010</t>
+        </is>
+      </c>
+      <c r="I62" s="54" t="n"/>
+      <c r="J62" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="L62" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="54" t="inlineStr">
+        <is>
+          <t>AA263236</t>
+        </is>
+      </c>
+      <c r="B63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C63" s="55" t="n">
+        <v>0.6673263888888888</v>
+      </c>
+      <c r="D63" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E63" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F63" s="54" t="n"/>
+      <c r="G63" s="54" t="n"/>
+      <c r="H63" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-002</t>
+        </is>
+      </c>
+      <c r="I63" s="54" t="inlineStr">
+        <is>
+          <t>Fixed asset - power user</t>
+        </is>
+      </c>
+      <c r="J63" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L63" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="54" t="inlineStr">
+        <is>
+          <t>AA263878</t>
+        </is>
+      </c>
+      <c r="B64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="C64" s="55" t="n">
+        <v>0.6350810185185185</v>
+      </c>
+      <c r="D64" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E64" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F64" s="54" t="n"/>
+      <c r="G64" s="54" t="n"/>
+      <c r="H64" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PA900-900</t>
+        </is>
+      </c>
+      <c r="I64" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
+        </is>
+      </c>
+      <c r="J64" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="L64" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="54" t="inlineStr">
+        <is>
+          <t>AA263906</t>
+        </is>
+      </c>
+      <c r="B65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C65" s="55" t="n">
+        <v>0.7181712962962963</v>
+      </c>
+      <c r="D65" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E65" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F65" s="54" t="n"/>
+      <c r="G65" s="54" t="n"/>
+      <c r="H65" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I65" s="54" t="n"/>
+      <c r="J65" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L65" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="54" t="inlineStr">
+        <is>
+          <t>AA631925</t>
+        </is>
+      </c>
+      <c r="B66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="C66" s="55" t="n">
+        <v>0.4579745370370371</v>
+      </c>
+      <c r="D66" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E66" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F66" s="54" t="n"/>
+      <c r="G66" s="54" t="n"/>
+      <c r="H66" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PE520-000-H5</t>
+        </is>
+      </c>
+      <c r="I66" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
+        </is>
+      </c>
+      <c r="J66" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="L66" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR03</t>
+        </is>
+      </c>
+      <c r="B67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="C67" s="55" t="n">
+        <v>0.4067939814814815</v>
+      </c>
+      <c r="D67" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E67" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F67" s="54" t="n"/>
+      <c r="G67" s="54" t="n"/>
+      <c r="H67" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-PL01-001</t>
+        </is>
+      </c>
+      <c r="I67" s="54" t="inlineStr">
+        <is>
+          <t>[비용예산] KEY USER</t>
+        </is>
+      </c>
+      <c r="J67" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="L67" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR08</t>
+        </is>
+      </c>
+      <c r="B68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="C68" s="55" t="n">
+        <v>0.5673495370370371</v>
+      </c>
+      <c r="D68" s="54" t="inlineStr">
+        <is>
+          <t>AA164331</t>
+        </is>
+      </c>
+      <c r="E68" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F68" s="54" t="n"/>
+      <c r="G68" s="54" t="n"/>
+      <c r="H68" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-011</t>
+        </is>
+      </c>
+      <c r="I68" s="54" t="inlineStr">
+        <is>
+          <t>Role for Data Maint.(APP Only)</t>
+        </is>
+      </c>
+      <c r="J68" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="L68" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>데이터 변경 권한 제한</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20683,2524 +22029,6 @@
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>오라클</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>DB 패스워드</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>오라클</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="56" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="B45" s="56" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C45" s="56" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D45" s="57" t="inlineStr">
-        <is>
-          <t>Changed By</t>
-        </is>
-      </c>
-      <c r="E45" s="57" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="F45" s="57" t="inlineStr">
-        <is>
-          <t>Old value</t>
-        </is>
-      </c>
-      <c r="G45" s="57" t="inlineStr">
-        <is>
-          <t>Text for the Old Value</t>
-        </is>
-      </c>
-      <c r="H45" s="57" t="inlineStr">
-        <is>
-          <t>New value</t>
-        </is>
-      </c>
-      <c r="I45" s="57" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="J45" s="57" t="inlineStr">
-        <is>
-          <t>TCode</t>
-        </is>
-      </c>
-      <c r="K45" s="57" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="L45" s="57" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="54" t="inlineStr">
-        <is>
-          <t>AA115767</t>
-        </is>
-      </c>
-      <c r="B46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="C46" s="55" t="n">
-        <v>0.5591087962962963</v>
-      </c>
-      <c r="D46" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E46" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F46" s="54" t="n"/>
-      <c r="G46" s="54" t="n"/>
-      <c r="H46" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-007</t>
-        </is>
-      </c>
-      <c r="I46" s="54" t="n"/>
-      <c r="J46" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="L46" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="54" t="inlineStr">
-        <is>
-          <t>AA142616</t>
-        </is>
-      </c>
-      <c r="B47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="C47" s="55" t="n">
-        <v>0.4214930555555556</v>
-      </c>
-      <c r="D47" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E47" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F47" s="54" t="n"/>
-      <c r="G47" s="54" t="n"/>
-      <c r="H47" s="54" t="inlineStr">
-        <is>
-          <t>ZAA-GENL-001</t>
-        </is>
-      </c>
-      <c r="I47" s="54" t="inlineStr">
-        <is>
-          <t>정비부문 공통 Transaction</t>
-        </is>
-      </c>
-      <c r="J47" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="L47" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="54" t="inlineStr">
-        <is>
-          <t>AA170547</t>
-        </is>
-      </c>
-      <c r="B48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C48" s="55" t="n">
-        <v>0.7181597222222222</v>
-      </c>
-      <c r="D48" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E48" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F48" s="54" t="n"/>
-      <c r="G48" s="54" t="n"/>
-      <c r="H48" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I48" s="54" t="n"/>
-      <c r="J48" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L48" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="54" t="inlineStr">
-        <is>
-          <t>AA176250</t>
-        </is>
-      </c>
-      <c r="B49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="C49" s="55" t="n">
-        <v>0.3433449074074074</v>
-      </c>
-      <c r="D49" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E49" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F49" s="54" t="n"/>
-      <c r="G49" s="54" t="n"/>
-      <c r="H49" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-ME01-025</t>
-        </is>
-      </c>
-      <c r="I49" s="54" t="inlineStr">
-        <is>
-          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
-        </is>
-      </c>
-      <c r="J49" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="L49" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="54" t="inlineStr">
-        <is>
-          <t>AA181168</t>
-        </is>
-      </c>
-      <c r="B50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="C50" s="55" t="n">
-        <v>0.3649189814814815</v>
-      </c>
-      <c r="D50" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E50" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F50" s="54" t="n"/>
-      <c r="G50" s="54" t="n"/>
-      <c r="H50" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-016</t>
-        </is>
-      </c>
-      <c r="I50" s="54" t="inlineStr">
-        <is>
-          <t>Interface Display</t>
-        </is>
-      </c>
-      <c r="J50" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="L50" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="54" t="inlineStr">
-        <is>
-          <t>AA199530</t>
-        </is>
-      </c>
-      <c r="B51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="C51" s="55" t="n">
-        <v>0.3940046296296296</v>
-      </c>
-      <c r="D51" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E51" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F51" s="54" t="n"/>
-      <c r="G51" s="54" t="n"/>
-      <c r="H51" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-MQ-001</t>
-        </is>
-      </c>
-      <c r="I51" s="54" t="inlineStr">
-        <is>
-          <t>MQ 인가공급업체 관리</t>
-        </is>
-      </c>
-      <c r="J51" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="L51" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="54" t="inlineStr">
-        <is>
-          <t>AA208665</t>
-        </is>
-      </c>
-      <c r="B52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="C52" s="55" t="n">
-        <v>0.6525925925925926</v>
-      </c>
-      <c r="D52" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E52" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F52" s="54" t="n"/>
-      <c r="G52" s="54" t="n"/>
-      <c r="H52" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-EP000-000-M5</t>
-        </is>
-      </c>
-      <c r="I52" s="54" t="n"/>
-      <c r="J52" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="L52" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="54" t="inlineStr">
-        <is>
-          <t>AA216786</t>
-        </is>
-      </c>
-      <c r="B53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C53" s="55" t="n">
-        <v>0.7110532407407407</v>
-      </c>
-      <c r="D53" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E53" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F53" s="54" t="n"/>
-      <c r="G53" s="54" t="n"/>
-      <c r="H53" s="54" t="inlineStr">
-        <is>
-          <t>ZAMS-AC01-002</t>
-        </is>
-      </c>
-      <c r="I53" s="54" t="inlineStr">
-        <is>
-          <t>항공기 / BFE</t>
-        </is>
-      </c>
-      <c r="J53" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L53" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="54" t="inlineStr">
-        <is>
-          <t>AA220110</t>
-        </is>
-      </c>
-      <c r="B54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="C54" s="55" t="n">
-        <v>0.6093055555555555</v>
-      </c>
-      <c r="D54" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E54" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F54" s="54" t="n"/>
-      <c r="G54" s="54" t="n"/>
-      <c r="H54" s="54" t="inlineStr">
-        <is>
-          <t>Z_COMMONID_MANAGEMENT</t>
-        </is>
-      </c>
-      <c r="I54" s="54" t="n"/>
-      <c r="J54" s="54" t="inlineStr">
-        <is>
-          <t>PFCG</t>
-        </is>
-      </c>
-      <c r="K54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="L54" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="54" t="inlineStr">
-        <is>
-          <t>AA236778</t>
-        </is>
-      </c>
-      <c r="B55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C55" s="55" t="n">
-        <v>0.4008680555555555</v>
-      </c>
-      <c r="D55" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E55" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F55" s="54" t="n"/>
-      <c r="G55" s="54" t="n"/>
-      <c r="H55" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I55" s="54" t="n"/>
-      <c r="J55" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L55" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="54" t="inlineStr">
-        <is>
-          <t>AA251644</t>
-        </is>
-      </c>
-      <c r="B56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="C56" s="55" t="n">
-        <v>0.4179050925925926</v>
-      </c>
-      <c r="D56" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E56" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F56" s="54" t="n"/>
-      <c r="G56" s="54" t="n"/>
-      <c r="H56" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I56" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J56" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="L56" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="54" t="inlineStr">
-        <is>
-          <t>AA258842</t>
-        </is>
-      </c>
-      <c r="B57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="C57" s="55" t="n">
-        <v>0.6103009259259259</v>
-      </c>
-      <c r="D57" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E57" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F57" s="54" t="n"/>
-      <c r="G57" s="54" t="n"/>
-      <c r="H57" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I57" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J57" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="L57" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="54" t="inlineStr">
-        <is>
-          <t>AA258996</t>
-        </is>
-      </c>
-      <c r="B58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="C58" s="55" t="n">
-        <v>0.4435069444444444</v>
-      </c>
-      <c r="D58" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E58" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F58" s="54" t="n"/>
-      <c r="G58" s="54" t="n"/>
-      <c r="H58" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA10-010</t>
-        </is>
-      </c>
-      <c r="I58" s="54" t="inlineStr">
-        <is>
-          <t>MIDAS Master</t>
-        </is>
-      </c>
-      <c r="J58" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="L58" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="54" t="inlineStr">
-        <is>
-          <t>AA259101</t>
-        </is>
-      </c>
-      <c r="B59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="C59" s="55" t="n">
-        <v>0.6574652777777777</v>
-      </c>
-      <c r="D59" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E59" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F59" s="54" t="n"/>
-      <c r="G59" s="54" t="n"/>
-      <c r="H59" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-ME01-013</t>
-        </is>
-      </c>
-      <c r="I59" s="54" t="inlineStr">
-        <is>
-          <t>항공기/엔진 외주수리비 자산화 담당자</t>
-        </is>
-      </c>
-      <c r="J59" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="L59" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="54" t="inlineStr">
-        <is>
-          <t>AA260436</t>
-        </is>
-      </c>
-      <c r="B60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="C60" s="55" t="n">
-        <v>0.4691435185185185</v>
-      </c>
-      <c r="D60" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E60" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F60" s="54" t="n"/>
-      <c r="G60" s="54" t="n"/>
-      <c r="H60" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-010</t>
-        </is>
-      </c>
-      <c r="I60" s="54" t="inlineStr">
-        <is>
-          <t>Common User</t>
-        </is>
-      </c>
-      <c r="J60" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="L60" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="54" t="inlineStr">
-        <is>
-          <t>AA262802</t>
-        </is>
-      </c>
-      <c r="B61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C61" s="55" t="n">
-        <v>0.5523842592592593</v>
-      </c>
-      <c r="D61" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E61" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F61" s="54" t="n"/>
-      <c r="G61" s="54" t="n"/>
-      <c r="H61" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-010</t>
-        </is>
-      </c>
-      <c r="I61" s="54" t="n"/>
-      <c r="J61" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L61" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="54" t="inlineStr">
-        <is>
-          <t>AA263006</t>
-        </is>
-      </c>
-      <c r="B62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="C62" s="55" t="n">
-        <v>0.7208564814814815</v>
-      </c>
-      <c r="D62" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E62" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F62" s="54" t="n"/>
-      <c r="G62" s="54" t="n"/>
-      <c r="H62" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-010</t>
-        </is>
-      </c>
-      <c r="I62" s="54" t="n"/>
-      <c r="J62" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="L62" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="54" t="inlineStr">
-        <is>
-          <t>AA263236</t>
-        </is>
-      </c>
-      <c r="B63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C63" s="55" t="n">
-        <v>0.6673263888888888</v>
-      </c>
-      <c r="D63" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E63" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F63" s="54" t="n"/>
-      <c r="G63" s="54" t="n"/>
-      <c r="H63" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-002</t>
-        </is>
-      </c>
-      <c r="I63" s="54" t="inlineStr">
-        <is>
-          <t>Fixed asset - power user</t>
-        </is>
-      </c>
-      <c r="J63" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L63" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="54" t="inlineStr">
-        <is>
-          <t>AA263878</t>
-        </is>
-      </c>
-      <c r="B64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="C64" s="55" t="n">
-        <v>0.6350810185185185</v>
-      </c>
-      <c r="D64" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E64" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F64" s="54" t="n"/>
-      <c r="G64" s="54" t="n"/>
-      <c r="H64" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PA900-900</t>
-        </is>
-      </c>
-      <c r="I64" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
-        </is>
-      </c>
-      <c r="J64" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="L64" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="54" t="inlineStr">
-        <is>
-          <t>AA263906</t>
-        </is>
-      </c>
-      <c r="B65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C65" s="55" t="n">
-        <v>0.7181712962962963</v>
-      </c>
-      <c r="D65" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E65" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F65" s="54" t="n"/>
-      <c r="G65" s="54" t="n"/>
-      <c r="H65" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I65" s="54" t="n"/>
-      <c r="J65" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L65" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="54" t="inlineStr">
-        <is>
-          <t>AA631925</t>
-        </is>
-      </c>
-      <c r="B66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="C66" s="55" t="n">
-        <v>0.4579745370370371</v>
-      </c>
-      <c r="D66" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E66" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F66" s="54" t="n"/>
-      <c r="G66" s="54" t="n"/>
-      <c r="H66" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PE520-000-H5</t>
-        </is>
-      </c>
-      <c r="I66" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
-        </is>
-      </c>
-      <c r="J66" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="L66" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR03</t>
-        </is>
-      </c>
-      <c r="B67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="C67" s="55" t="n">
-        <v>0.4067939814814815</v>
-      </c>
-      <c r="D67" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E67" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F67" s="54" t="n"/>
-      <c r="G67" s="54" t="n"/>
-      <c r="H67" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-PL01-001</t>
-        </is>
-      </c>
-      <c r="I67" s="54" t="inlineStr">
-        <is>
-          <t>[비용예산] KEY USER</t>
-        </is>
-      </c>
-      <c r="J67" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="L67" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR08</t>
-        </is>
-      </c>
-      <c r="B68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="C68" s="55" t="n">
-        <v>0.5673495370370371</v>
-      </c>
-      <c r="D68" s="54" t="inlineStr">
-        <is>
-          <t>AA164331</t>
-        </is>
-      </c>
-      <c r="E68" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F68" s="54" t="n"/>
-      <c r="G68" s="54" t="n"/>
-      <c r="H68" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-011</t>
-        </is>
-      </c>
-      <c r="I68" s="54" t="inlineStr">
-        <is>
-          <t>Role for Data Maint.(APP Only)</t>
-        </is>
-      </c>
-      <c r="J68" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="L68" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>DB 관리자 권한 제한</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>오라클</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="56" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="B45" s="56" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C45" s="56" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D45" s="57" t="inlineStr">
-        <is>
-          <t>Changed By</t>
-        </is>
-      </c>
-      <c r="E45" s="57" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
-      </c>
-      <c r="F45" s="57" t="inlineStr">
-        <is>
-          <t>Old value</t>
-        </is>
-      </c>
-      <c r="G45" s="57" t="inlineStr">
-        <is>
-          <t>Text for the Old Value</t>
-        </is>
-      </c>
-      <c r="H45" s="57" t="inlineStr">
-        <is>
-          <t>New value</t>
-        </is>
-      </c>
-      <c r="I45" s="57" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="J45" s="57" t="inlineStr">
-        <is>
-          <t>TCode</t>
-        </is>
-      </c>
-      <c r="K45" s="57" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="L45" s="57" t="inlineStr">
-        <is>
-          <t>End Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="54" t="inlineStr">
-        <is>
-          <t>AA115767</t>
-        </is>
-      </c>
-      <c r="B46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="C46" s="55" t="n">
-        <v>0.5591087962962963</v>
-      </c>
-      <c r="D46" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E46" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F46" s="54" t="n"/>
-      <c r="G46" s="54" t="n"/>
-      <c r="H46" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-007</t>
-        </is>
-      </c>
-      <c r="I46" s="54" t="n"/>
-      <c r="J46" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K46" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.30</t>
-        </is>
-      </c>
-      <c r="L46" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="54" t="inlineStr">
-        <is>
-          <t>AA142616</t>
-        </is>
-      </c>
-      <c r="B47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="C47" s="55" t="n">
-        <v>0.4214930555555556</v>
-      </c>
-      <c r="D47" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E47" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F47" s="54" t="n"/>
-      <c r="G47" s="54" t="n"/>
-      <c r="H47" s="54" t="inlineStr">
-        <is>
-          <t>ZAA-GENL-001</t>
-        </is>
-      </c>
-      <c r="I47" s="54" t="inlineStr">
-        <is>
-          <t>정비부문 공통 Transaction</t>
-        </is>
-      </c>
-      <c r="J47" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K47" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.08</t>
-        </is>
-      </c>
-      <c r="L47" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="54" t="inlineStr">
-        <is>
-          <t>AA170547</t>
-        </is>
-      </c>
-      <c r="B48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C48" s="55" t="n">
-        <v>0.7181597222222222</v>
-      </c>
-      <c r="D48" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E48" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F48" s="54" t="n"/>
-      <c r="G48" s="54" t="n"/>
-      <c r="H48" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I48" s="54" t="n"/>
-      <c r="J48" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K48" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L48" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="54" t="inlineStr">
-        <is>
-          <t>AA176250</t>
-        </is>
-      </c>
-      <c r="B49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="C49" s="55" t="n">
-        <v>0.3433449074074074</v>
-      </c>
-      <c r="D49" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E49" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F49" s="54" t="n"/>
-      <c r="G49" s="54" t="n"/>
-      <c r="H49" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-ME01-025</t>
-        </is>
-      </c>
-      <c r="I49" s="54" t="inlineStr">
-        <is>
-          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
-        </is>
-      </c>
-      <c r="J49" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K49" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.03</t>
-        </is>
-      </c>
-      <c r="L49" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="54" t="inlineStr">
-        <is>
-          <t>AA181168</t>
-        </is>
-      </c>
-      <c r="B50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="C50" s="55" t="n">
-        <v>0.3649189814814815</v>
-      </c>
-      <c r="D50" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E50" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F50" s="54" t="n"/>
-      <c r="G50" s="54" t="n"/>
-      <c r="H50" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-016</t>
-        </is>
-      </c>
-      <c r="I50" s="54" t="inlineStr">
-        <is>
-          <t>Interface Display</t>
-        </is>
-      </c>
-      <c r="J50" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K50" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.07</t>
-        </is>
-      </c>
-      <c r="L50" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="54" t="inlineStr">
-        <is>
-          <t>AA199530</t>
-        </is>
-      </c>
-      <c r="B51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="C51" s="55" t="n">
-        <v>0.3940046296296296</v>
-      </c>
-      <c r="D51" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E51" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F51" s="54" t="n"/>
-      <c r="G51" s="54" t="n"/>
-      <c r="H51" s="54" t="inlineStr">
-        <is>
-          <t>ZMM-MQ-001</t>
-        </is>
-      </c>
-      <c r="I51" s="54" t="inlineStr">
-        <is>
-          <t>MQ 인가공급업체 관리</t>
-        </is>
-      </c>
-      <c r="J51" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K51" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.09</t>
-        </is>
-      </c>
-      <c r="L51" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="54" t="inlineStr">
-        <is>
-          <t>AA208665</t>
-        </is>
-      </c>
-      <c r="B52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="C52" s="55" t="n">
-        <v>0.6525925925925926</v>
-      </c>
-      <c r="D52" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E52" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F52" s="54" t="n"/>
-      <c r="G52" s="54" t="n"/>
-      <c r="H52" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-EP000-000-M5</t>
-        </is>
-      </c>
-      <c r="I52" s="54" t="n"/>
-      <c r="J52" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K52" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.02</t>
-        </is>
-      </c>
-      <c r="L52" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="54" t="inlineStr">
-        <is>
-          <t>AA216786</t>
-        </is>
-      </c>
-      <c r="B53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C53" s="55" t="n">
-        <v>0.7110532407407407</v>
-      </c>
-      <c r="D53" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E53" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F53" s="54" t="n"/>
-      <c r="G53" s="54" t="n"/>
-      <c r="H53" s="54" t="inlineStr">
-        <is>
-          <t>ZAMS-AC01-002</t>
-        </is>
-      </c>
-      <c r="I53" s="54" t="inlineStr">
-        <is>
-          <t>항공기 / BFE</t>
-        </is>
-      </c>
-      <c r="J53" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K53" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L53" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="54" t="inlineStr">
-        <is>
-          <t>AA220110</t>
-        </is>
-      </c>
-      <c r="B54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="C54" s="55" t="n">
-        <v>0.6093055555555555</v>
-      </c>
-      <c r="D54" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E54" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F54" s="54" t="n"/>
-      <c r="G54" s="54" t="n"/>
-      <c r="H54" s="54" t="inlineStr">
-        <is>
-          <t>Z_COMMONID_MANAGEMENT</t>
-        </is>
-      </c>
-      <c r="I54" s="54" t="n"/>
-      <c r="J54" s="54" t="inlineStr">
-        <is>
-          <t>PFCG</t>
-        </is>
-      </c>
-      <c r="K54" s="54" t="inlineStr">
-        <is>
-          <t>2023.02.01</t>
-        </is>
-      </c>
-      <c r="L54" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="54" t="inlineStr">
-        <is>
-          <t>AA236778</t>
-        </is>
-      </c>
-      <c r="B55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C55" s="55" t="n">
-        <v>0.4008680555555555</v>
-      </c>
-      <c r="D55" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E55" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F55" s="54" t="n"/>
-      <c r="G55" s="54" t="n"/>
-      <c r="H55" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I55" s="54" t="n"/>
-      <c r="J55" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K55" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L55" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="54" t="inlineStr">
-        <is>
-          <t>AA251644</t>
-        </is>
-      </c>
-      <c r="B56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="C56" s="55" t="n">
-        <v>0.4179050925925926</v>
-      </c>
-      <c r="D56" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E56" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F56" s="54" t="n"/>
-      <c r="G56" s="54" t="n"/>
-      <c r="H56" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I56" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J56" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K56" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.04</t>
-        </is>
-      </c>
-      <c r="L56" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="54" t="inlineStr">
-        <is>
-          <t>AA258842</t>
-        </is>
-      </c>
-      <c r="B57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="C57" s="55" t="n">
-        <v>0.6103009259259259</v>
-      </c>
-      <c r="D57" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E57" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F57" s="54" t="n"/>
-      <c r="G57" s="54" t="n"/>
-      <c r="H57" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PY007-007-H1</t>
-        </is>
-      </c>
-      <c r="I57" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PY] (HASS) 담당자 (팀)</t>
-        </is>
-      </c>
-      <c r="J57" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K57" s="54" t="inlineStr">
-        <is>
-          <t>2023.07.27</t>
-        </is>
-      </c>
-      <c r="L57" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="54" t="inlineStr">
-        <is>
-          <t>AA258996</t>
-        </is>
-      </c>
-      <c r="B58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="C58" s="55" t="n">
-        <v>0.4435069444444444</v>
-      </c>
-      <c r="D58" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E58" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F58" s="54" t="n"/>
-      <c r="G58" s="54" t="n"/>
-      <c r="H58" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA10-010</t>
-        </is>
-      </c>
-      <c r="I58" s="54" t="inlineStr">
-        <is>
-          <t>MIDAS Master</t>
-        </is>
-      </c>
-      <c r="J58" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K58" s="54" t="inlineStr">
-        <is>
-          <t>2023.01.26</t>
-        </is>
-      </c>
-      <c r="L58" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="54" t="inlineStr">
-        <is>
-          <t>AA259101</t>
-        </is>
-      </c>
-      <c r="B59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="C59" s="55" t="n">
-        <v>0.6574652777777777</v>
-      </c>
-      <c r="D59" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E59" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F59" s="54" t="n"/>
-      <c r="G59" s="54" t="n"/>
-      <c r="H59" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-ME01-013</t>
-        </is>
-      </c>
-      <c r="I59" s="54" t="inlineStr">
-        <is>
-          <t>항공기/엔진 외주수리비 자산화 담당자</t>
-        </is>
-      </c>
-      <c r="J59" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K59" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.18</t>
-        </is>
-      </c>
-      <c r="L59" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="54" t="inlineStr">
-        <is>
-          <t>AA260436</t>
-        </is>
-      </c>
-      <c r="B60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="C60" s="55" t="n">
-        <v>0.4691435185185185</v>
-      </c>
-      <c r="D60" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E60" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F60" s="54" t="n"/>
-      <c r="G60" s="54" t="n"/>
-      <c r="H60" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-AA20-010</t>
-        </is>
-      </c>
-      <c r="I60" s="54" t="inlineStr">
-        <is>
-          <t>Common User</t>
-        </is>
-      </c>
-      <c r="J60" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K60" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.10</t>
-        </is>
-      </c>
-      <c r="L60" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="54" t="inlineStr">
-        <is>
-          <t>AA262802</t>
-        </is>
-      </c>
-      <c r="B61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="C61" s="55" t="n">
-        <v>0.5523842592592593</v>
-      </c>
-      <c r="D61" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E61" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F61" s="54" t="n"/>
-      <c r="G61" s="54" t="n"/>
-      <c r="H61" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-010</t>
-        </is>
-      </c>
-      <c r="I61" s="54" t="n"/>
-      <c r="J61" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K61" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.04</t>
-        </is>
-      </c>
-      <c r="L61" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="54" t="inlineStr">
-        <is>
-          <t>AA263006</t>
-        </is>
-      </c>
-      <c r="B62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="C62" s="55" t="n">
-        <v>0.7208564814814815</v>
-      </c>
-      <c r="D62" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E62" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F62" s="54" t="n"/>
-      <c r="G62" s="54" t="n"/>
-      <c r="H62" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-010</t>
-        </is>
-      </c>
-      <c r="I62" s="54" t="n"/>
-      <c r="J62" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K62" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.11</t>
-        </is>
-      </c>
-      <c r="L62" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="54" t="inlineStr">
-        <is>
-          <t>AA263236</t>
-        </is>
-      </c>
-      <c r="B63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="C63" s="55" t="n">
-        <v>0.6673263888888888</v>
-      </c>
-      <c r="D63" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E63" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F63" s="54" t="n"/>
-      <c r="G63" s="54" t="n"/>
-      <c r="H63" s="54" t="inlineStr">
-        <is>
-          <t>ZFI-PM01-002</t>
-        </is>
-      </c>
-      <c r="I63" s="54" t="inlineStr">
-        <is>
-          <t>Fixed asset - power user</t>
-        </is>
-      </c>
-      <c r="J63" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K63" s="54" t="inlineStr">
-        <is>
-          <t>2023.06.15</t>
-        </is>
-      </c>
-      <c r="L63" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="54" t="inlineStr">
-        <is>
-          <t>AA263878</t>
-        </is>
-      </c>
-      <c r="B64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="C64" s="55" t="n">
-        <v>0.6350810185185185</v>
-      </c>
-      <c r="D64" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E64" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F64" s="54" t="n"/>
-      <c r="G64" s="54" t="n"/>
-      <c r="H64" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PA900-900</t>
-        </is>
-      </c>
-      <c r="I64" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
-        </is>
-      </c>
-      <c r="J64" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K64" s="54" t="inlineStr">
-        <is>
-          <t>2023.08.17</t>
-        </is>
-      </c>
-      <c r="L64" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="54" t="inlineStr">
-        <is>
-          <t>AA263906</t>
-        </is>
-      </c>
-      <c r="B65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="C65" s="55" t="n">
-        <v>0.7181712962962963</v>
-      </c>
-      <c r="D65" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E65" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F65" s="54" t="n"/>
-      <c r="G65" s="54" t="n"/>
-      <c r="H65" s="54" t="inlineStr">
-        <is>
-          <t>ZFC-AA20-020</t>
-        </is>
-      </c>
-      <c r="I65" s="54" t="n"/>
-      <c r="J65" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K65" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.15</t>
-        </is>
-      </c>
-      <c r="L65" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="54" t="inlineStr">
-        <is>
-          <t>AA631925</t>
-        </is>
-      </c>
-      <c r="B66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="C66" s="55" t="n">
-        <v>0.4579745370370371</v>
-      </c>
-      <c r="D66" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E66" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F66" s="54" t="n"/>
-      <c r="G66" s="54" t="n"/>
-      <c r="H66" s="54" t="inlineStr">
-        <is>
-          <t>ZHR-PE520-000-H5</t>
-        </is>
-      </c>
-      <c r="I66" s="54" t="inlineStr">
-        <is>
-          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
-        </is>
-      </c>
-      <c r="J66" s="54" t="inlineStr">
-        <is>
-          <t>SU10</t>
-        </is>
-      </c>
-      <c r="K66" s="54" t="inlineStr">
-        <is>
-          <t>2023.05.02</t>
-        </is>
-      </c>
-      <c r="L66" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR03</t>
-        </is>
-      </c>
-      <c r="B67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="C67" s="55" t="n">
-        <v>0.4067939814814815</v>
-      </c>
-      <c r="D67" s="54" t="inlineStr">
-        <is>
-          <t>IDKIM</t>
-        </is>
-      </c>
-      <c r="E67" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F67" s="54" t="n"/>
-      <c r="G67" s="54" t="n"/>
-      <c r="H67" s="54" t="inlineStr">
-        <is>
-          <t>ZCO-PL01-001</t>
-        </is>
-      </c>
-      <c r="I67" s="54" t="inlineStr">
-        <is>
-          <t>[비용예산] KEY USER</t>
-        </is>
-      </c>
-      <c r="J67" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K67" s="54" t="inlineStr">
-        <is>
-          <t>2023.04.21</t>
-        </is>
-      </c>
-      <c r="L67" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="54" t="inlineStr">
-        <is>
-          <t>AIAAR08</t>
-        </is>
-      </c>
-      <c r="B68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="C68" s="55" t="n">
-        <v>0.5673495370370371</v>
-      </c>
-      <c r="D68" s="54" t="inlineStr">
-        <is>
-          <t>AA164331</t>
-        </is>
-      </c>
-      <c r="E68" s="54" t="inlineStr">
-        <is>
-          <t>Role added</t>
-        </is>
-      </c>
-      <c r="F68" s="54" t="n"/>
-      <c r="G68" s="54" t="n"/>
-      <c r="H68" s="54" t="inlineStr">
-        <is>
-          <t>ZBC-XT01-011</t>
-        </is>
-      </c>
-      <c r="I68" s="54" t="inlineStr">
-        <is>
-          <t>Role for Data Maint.(APP Only)</t>
-        </is>
-      </c>
-      <c r="J68" s="54" t="inlineStr">
-        <is>
-          <t>SU01</t>
-        </is>
-      </c>
-      <c r="K68" s="54" t="inlineStr">
-        <is>
-          <t>2023.03.16</t>
-        </is>
-      </c>
-      <c r="L68" s="54" t="inlineStr">
-        <is>
-          <t>9999.12.31</t>
         </is>
       </c>
     </row>
@@ -23226,14 +22054,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>OS 접근권한 승인</t>
+          <t>DB 패스워드</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Unix</t>
+          <t>오라클</t>
         </is>
       </c>
     </row>
@@ -24477,7 +23305,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -24485,14 +23313,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>OS 패스워드</t>
+          <t>DB 관리자 권한 제한</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Unix</t>
+          <t>오라클</t>
         </is>
       </c>
     </row>
@@ -25744,7 +24572,7 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>OS 관리자 권한 제한</t>
+          <t>OS 접근권한 승인</t>
         </is>
       </c>
     </row>
@@ -27003,14 +25831,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>프로그램 변경 승인</t>
+          <t>OS 패스워드</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>Unix</t>
         </is>
       </c>
     </row>
@@ -28262,14 +27090,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>개발/운영 환경 분리</t>
+          <t>OS 관리자 권한 제한</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>Unix</t>
         </is>
       </c>
     </row>
@@ -29521,14 +28349,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>이관담당자 권한 제한</t>
+          <t>프로그램 변경 승인</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -30780,14 +29608,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>인프라 설정 변경_DB</t>
+          <t>개발/운영 환경 분리</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -32023,7 +30851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -32035,26 +30863,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
-  <cols>
-    <col width="81.25" customWidth="1" style="58" min="1" max="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>아래 쿼리 실행 후 데이터와 화면 캡쳐 결과</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="99" customHeight="1" s="58">
-      <c r="A3" s="52" t="inlineStr">
-        <is>
-          <t>SELECT *
-FROM  fnd_user fu
-          fnd_user_resp_groups_direct furg
-          fnd_responsibility fr
-WEHRE fu.user_id = furg.user_id
-AND    furg.responsibility_id = fr.responsibility_id</t>
+          <t>아래와 같이 당기 권한 부여 이력 데이터와 화면 캡쳐</t>
         </is>
       </c>
     </row>
@@ -33286,6 +32099,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33306,14 +32120,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>인프라 설정 변경_OS</t>
+          <t>이관담당자 권한 제한</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Unix</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -34549,6 +33363,2524 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>인프라 설정 변경_DB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B45" s="56" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C45" s="56" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D45" s="57" t="inlineStr">
+        <is>
+          <t>Changed By</t>
+        </is>
+      </c>
+      <c r="E45" s="57" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F45" s="57" t="inlineStr">
+        <is>
+          <t>Old value</t>
+        </is>
+      </c>
+      <c r="G45" s="57" t="inlineStr">
+        <is>
+          <t>Text for the Old Value</t>
+        </is>
+      </c>
+      <c r="H45" s="57" t="inlineStr">
+        <is>
+          <t>New value</t>
+        </is>
+      </c>
+      <c r="I45" s="57" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="J45" s="57" t="inlineStr">
+        <is>
+          <t>TCode</t>
+        </is>
+      </c>
+      <c r="K45" s="57" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="L45" s="57" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="54" t="inlineStr">
+        <is>
+          <t>AA115767</t>
+        </is>
+      </c>
+      <c r="B46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>0.5591087962962963</v>
+      </c>
+      <c r="D46" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E46" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F46" s="54" t="n"/>
+      <c r="G46" s="54" t="n"/>
+      <c r="H46" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-007</t>
+        </is>
+      </c>
+      <c r="I46" s="54" t="n"/>
+      <c r="J46" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="L46" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="54" t="inlineStr">
+        <is>
+          <t>AA142616</t>
+        </is>
+      </c>
+      <c r="B47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="C47" s="55" t="n">
+        <v>0.4214930555555556</v>
+      </c>
+      <c r="D47" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E47" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F47" s="54" t="n"/>
+      <c r="G47" s="54" t="n"/>
+      <c r="H47" s="54" t="inlineStr">
+        <is>
+          <t>ZAA-GENL-001</t>
+        </is>
+      </c>
+      <c r="I47" s="54" t="inlineStr">
+        <is>
+          <t>정비부문 공통 Transaction</t>
+        </is>
+      </c>
+      <c r="J47" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="L47" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="54" t="inlineStr">
+        <is>
+          <t>AA170547</t>
+        </is>
+      </c>
+      <c r="B48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C48" s="55" t="n">
+        <v>0.7181597222222222</v>
+      </c>
+      <c r="D48" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E48" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F48" s="54" t="n"/>
+      <c r="G48" s="54" t="n"/>
+      <c r="H48" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I48" s="54" t="n"/>
+      <c r="J48" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L48" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="54" t="inlineStr">
+        <is>
+          <t>AA176250</t>
+        </is>
+      </c>
+      <c r="B49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="C49" s="55" t="n">
+        <v>0.3433449074074074</v>
+      </c>
+      <c r="D49" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E49" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F49" s="54" t="n"/>
+      <c r="G49" s="54" t="n"/>
+      <c r="H49" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-ME01-025</t>
+        </is>
+      </c>
+      <c r="I49" s="54" t="inlineStr">
+        <is>
+          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
+        </is>
+      </c>
+      <c r="J49" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="L49" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="54" t="inlineStr">
+        <is>
+          <t>AA181168</t>
+        </is>
+      </c>
+      <c r="B50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="C50" s="55" t="n">
+        <v>0.3649189814814815</v>
+      </c>
+      <c r="D50" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E50" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F50" s="54" t="n"/>
+      <c r="G50" s="54" t="n"/>
+      <c r="H50" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-016</t>
+        </is>
+      </c>
+      <c r="I50" s="54" t="inlineStr">
+        <is>
+          <t>Interface Display</t>
+        </is>
+      </c>
+      <c r="J50" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="L50" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="54" t="inlineStr">
+        <is>
+          <t>AA199530</t>
+        </is>
+      </c>
+      <c r="B51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="C51" s="55" t="n">
+        <v>0.3940046296296296</v>
+      </c>
+      <c r="D51" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E51" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F51" s="54" t="n"/>
+      <c r="G51" s="54" t="n"/>
+      <c r="H51" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-MQ-001</t>
+        </is>
+      </c>
+      <c r="I51" s="54" t="inlineStr">
+        <is>
+          <t>MQ 인가공급업체 관리</t>
+        </is>
+      </c>
+      <c r="J51" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="L51" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="54" t="inlineStr">
+        <is>
+          <t>AA208665</t>
+        </is>
+      </c>
+      <c r="B52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="C52" s="55" t="n">
+        <v>0.6525925925925926</v>
+      </c>
+      <c r="D52" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E52" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F52" s="54" t="n"/>
+      <c r="G52" s="54" t="n"/>
+      <c r="H52" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-EP000-000-M5</t>
+        </is>
+      </c>
+      <c r="I52" s="54" t="n"/>
+      <c r="J52" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="L52" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="54" t="inlineStr">
+        <is>
+          <t>AA216786</t>
+        </is>
+      </c>
+      <c r="B53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C53" s="55" t="n">
+        <v>0.7110532407407407</v>
+      </c>
+      <c r="D53" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E53" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F53" s="54" t="n"/>
+      <c r="G53" s="54" t="n"/>
+      <c r="H53" s="54" t="inlineStr">
+        <is>
+          <t>ZAMS-AC01-002</t>
+        </is>
+      </c>
+      <c r="I53" s="54" t="inlineStr">
+        <is>
+          <t>항공기 / BFE</t>
+        </is>
+      </c>
+      <c r="J53" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L53" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="54" t="inlineStr">
+        <is>
+          <t>AA220110</t>
+        </is>
+      </c>
+      <c r="B54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="C54" s="55" t="n">
+        <v>0.6093055555555555</v>
+      </c>
+      <c r="D54" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E54" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F54" s="54" t="n"/>
+      <c r="G54" s="54" t="n"/>
+      <c r="H54" s="54" t="inlineStr">
+        <is>
+          <t>Z_COMMONID_MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="I54" s="54" t="n"/>
+      <c r="J54" s="54" t="inlineStr">
+        <is>
+          <t>PFCG</t>
+        </is>
+      </c>
+      <c r="K54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="L54" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="54" t="inlineStr">
+        <is>
+          <t>AA236778</t>
+        </is>
+      </c>
+      <c r="B55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C55" s="55" t="n">
+        <v>0.4008680555555555</v>
+      </c>
+      <c r="D55" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E55" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F55" s="54" t="n"/>
+      <c r="G55" s="54" t="n"/>
+      <c r="H55" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I55" s="54" t="n"/>
+      <c r="J55" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L55" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="54" t="inlineStr">
+        <is>
+          <t>AA251644</t>
+        </is>
+      </c>
+      <c r="B56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="C56" s="55" t="n">
+        <v>0.4179050925925926</v>
+      </c>
+      <c r="D56" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E56" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F56" s="54" t="n"/>
+      <c r="G56" s="54" t="n"/>
+      <c r="H56" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I56" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J56" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="L56" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="54" t="inlineStr">
+        <is>
+          <t>AA258842</t>
+        </is>
+      </c>
+      <c r="B57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="C57" s="55" t="n">
+        <v>0.6103009259259259</v>
+      </c>
+      <c r="D57" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E57" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F57" s="54" t="n"/>
+      <c r="G57" s="54" t="n"/>
+      <c r="H57" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I57" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J57" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="L57" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="54" t="inlineStr">
+        <is>
+          <t>AA258996</t>
+        </is>
+      </c>
+      <c r="B58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="C58" s="55" t="n">
+        <v>0.4435069444444444</v>
+      </c>
+      <c r="D58" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E58" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F58" s="54" t="n"/>
+      <c r="G58" s="54" t="n"/>
+      <c r="H58" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA10-010</t>
+        </is>
+      </c>
+      <c r="I58" s="54" t="inlineStr">
+        <is>
+          <t>MIDAS Master</t>
+        </is>
+      </c>
+      <c r="J58" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="L58" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="54" t="inlineStr">
+        <is>
+          <t>AA259101</t>
+        </is>
+      </c>
+      <c r="B59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="C59" s="55" t="n">
+        <v>0.6574652777777777</v>
+      </c>
+      <c r="D59" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E59" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F59" s="54" t="n"/>
+      <c r="G59" s="54" t="n"/>
+      <c r="H59" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-ME01-013</t>
+        </is>
+      </c>
+      <c r="I59" s="54" t="inlineStr">
+        <is>
+          <t>항공기/엔진 외주수리비 자산화 담당자</t>
+        </is>
+      </c>
+      <c r="J59" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="L59" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="54" t="inlineStr">
+        <is>
+          <t>AA260436</t>
+        </is>
+      </c>
+      <c r="B60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="C60" s="55" t="n">
+        <v>0.4691435185185185</v>
+      </c>
+      <c r="D60" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E60" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F60" s="54" t="n"/>
+      <c r="G60" s="54" t="n"/>
+      <c r="H60" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-010</t>
+        </is>
+      </c>
+      <c r="I60" s="54" t="inlineStr">
+        <is>
+          <t>Common User</t>
+        </is>
+      </c>
+      <c r="J60" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="L60" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="54" t="inlineStr">
+        <is>
+          <t>AA262802</t>
+        </is>
+      </c>
+      <c r="B61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C61" s="55" t="n">
+        <v>0.5523842592592593</v>
+      </c>
+      <c r="D61" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E61" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F61" s="54" t="n"/>
+      <c r="G61" s="54" t="n"/>
+      <c r="H61" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-010</t>
+        </is>
+      </c>
+      <c r="I61" s="54" t="n"/>
+      <c r="J61" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L61" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="54" t="inlineStr">
+        <is>
+          <t>AA263006</t>
+        </is>
+      </c>
+      <c r="B62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="C62" s="55" t="n">
+        <v>0.7208564814814815</v>
+      </c>
+      <c r="D62" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E62" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F62" s="54" t="n"/>
+      <c r="G62" s="54" t="n"/>
+      <c r="H62" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-010</t>
+        </is>
+      </c>
+      <c r="I62" s="54" t="n"/>
+      <c r="J62" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="L62" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="54" t="inlineStr">
+        <is>
+          <t>AA263236</t>
+        </is>
+      </c>
+      <c r="B63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C63" s="55" t="n">
+        <v>0.6673263888888888</v>
+      </c>
+      <c r="D63" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E63" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F63" s="54" t="n"/>
+      <c r="G63" s="54" t="n"/>
+      <c r="H63" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-002</t>
+        </is>
+      </c>
+      <c r="I63" s="54" t="inlineStr">
+        <is>
+          <t>Fixed asset - power user</t>
+        </is>
+      </c>
+      <c r="J63" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L63" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="54" t="inlineStr">
+        <is>
+          <t>AA263878</t>
+        </is>
+      </c>
+      <c r="B64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="C64" s="55" t="n">
+        <v>0.6350810185185185</v>
+      </c>
+      <c r="D64" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E64" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F64" s="54" t="n"/>
+      <c r="G64" s="54" t="n"/>
+      <c r="H64" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PA900-900</t>
+        </is>
+      </c>
+      <c r="I64" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
+        </is>
+      </c>
+      <c r="J64" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="L64" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="54" t="inlineStr">
+        <is>
+          <t>AA263906</t>
+        </is>
+      </c>
+      <c r="B65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C65" s="55" t="n">
+        <v>0.7181712962962963</v>
+      </c>
+      <c r="D65" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E65" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F65" s="54" t="n"/>
+      <c r="G65" s="54" t="n"/>
+      <c r="H65" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I65" s="54" t="n"/>
+      <c r="J65" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L65" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="54" t="inlineStr">
+        <is>
+          <t>AA631925</t>
+        </is>
+      </c>
+      <c r="B66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="C66" s="55" t="n">
+        <v>0.4579745370370371</v>
+      </c>
+      <c r="D66" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E66" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F66" s="54" t="n"/>
+      <c r="G66" s="54" t="n"/>
+      <c r="H66" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PE520-000-H5</t>
+        </is>
+      </c>
+      <c r="I66" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
+        </is>
+      </c>
+      <c r="J66" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="L66" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR03</t>
+        </is>
+      </c>
+      <c r="B67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="C67" s="55" t="n">
+        <v>0.4067939814814815</v>
+      </c>
+      <c r="D67" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E67" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F67" s="54" t="n"/>
+      <c r="G67" s="54" t="n"/>
+      <c r="H67" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-PL01-001</t>
+        </is>
+      </c>
+      <c r="I67" s="54" t="inlineStr">
+        <is>
+          <t>[비용예산] KEY USER</t>
+        </is>
+      </c>
+      <c r="J67" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="L67" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR08</t>
+        </is>
+      </c>
+      <c r="B68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="C68" s="55" t="n">
+        <v>0.5673495370370371</v>
+      </c>
+      <c r="D68" s="54" t="inlineStr">
+        <is>
+          <t>AA164331</t>
+        </is>
+      </c>
+      <c r="E68" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F68" s="54" t="n"/>
+      <c r="G68" s="54" t="n"/>
+      <c r="H68" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-011</t>
+        </is>
+      </c>
+      <c r="I68" s="54" t="inlineStr">
+        <is>
+          <t>Role for Data Maint.(APP Only)</t>
+        </is>
+      </c>
+      <c r="J68" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="L68" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>인프라 설정 변경_OS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Unix</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B45" s="56" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C45" s="56" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D45" s="57" t="inlineStr">
+        <is>
+          <t>Changed By</t>
+        </is>
+      </c>
+      <c r="E45" s="57" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F45" s="57" t="inlineStr">
+        <is>
+          <t>Old value</t>
+        </is>
+      </c>
+      <c r="G45" s="57" t="inlineStr">
+        <is>
+          <t>Text for the Old Value</t>
+        </is>
+      </c>
+      <c r="H45" s="57" t="inlineStr">
+        <is>
+          <t>New value</t>
+        </is>
+      </c>
+      <c r="I45" s="57" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="J45" s="57" t="inlineStr">
+        <is>
+          <t>TCode</t>
+        </is>
+      </c>
+      <c r="K45" s="57" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="L45" s="57" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="54" t="inlineStr">
+        <is>
+          <t>AA115767</t>
+        </is>
+      </c>
+      <c r="B46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="C46" s="55" t="n">
+        <v>0.5591087962962963</v>
+      </c>
+      <c r="D46" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E46" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F46" s="54" t="n"/>
+      <c r="G46" s="54" t="n"/>
+      <c r="H46" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-007</t>
+        </is>
+      </c>
+      <c r="I46" s="54" t="n"/>
+      <c r="J46" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K46" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.30</t>
+        </is>
+      </c>
+      <c r="L46" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="54" t="inlineStr">
+        <is>
+          <t>AA142616</t>
+        </is>
+      </c>
+      <c r="B47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="C47" s="55" t="n">
+        <v>0.4214930555555556</v>
+      </c>
+      <c r="D47" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E47" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F47" s="54" t="n"/>
+      <c r="G47" s="54" t="n"/>
+      <c r="H47" s="54" t="inlineStr">
+        <is>
+          <t>ZAA-GENL-001</t>
+        </is>
+      </c>
+      <c r="I47" s="54" t="inlineStr">
+        <is>
+          <t>정비부문 공통 Transaction</t>
+        </is>
+      </c>
+      <c r="J47" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K47" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.08</t>
+        </is>
+      </c>
+      <c r="L47" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="54" t="inlineStr">
+        <is>
+          <t>AA170547</t>
+        </is>
+      </c>
+      <c r="B48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C48" s="55" t="n">
+        <v>0.7181597222222222</v>
+      </c>
+      <c r="D48" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E48" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F48" s="54" t="n"/>
+      <c r="G48" s="54" t="n"/>
+      <c r="H48" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I48" s="54" t="n"/>
+      <c r="J48" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K48" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L48" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="54" t="inlineStr">
+        <is>
+          <t>AA176250</t>
+        </is>
+      </c>
+      <c r="B49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="C49" s="55" t="n">
+        <v>0.3433449074074074</v>
+      </c>
+      <c r="D49" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E49" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F49" s="54" t="n"/>
+      <c r="G49" s="54" t="n"/>
+      <c r="H49" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-ME01-025</t>
+        </is>
+      </c>
+      <c r="I49" s="54" t="inlineStr">
+        <is>
+          <t>기재관리그룹-MM모듈-NRTS(Part, Component Support Management)</t>
+        </is>
+      </c>
+      <c r="J49" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K49" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.03</t>
+        </is>
+      </c>
+      <c r="L49" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="54" t="inlineStr">
+        <is>
+          <t>AA181168</t>
+        </is>
+      </c>
+      <c r="B50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="C50" s="55" t="n">
+        <v>0.3649189814814815</v>
+      </c>
+      <c r="D50" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E50" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F50" s="54" t="n"/>
+      <c r="G50" s="54" t="n"/>
+      <c r="H50" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-016</t>
+        </is>
+      </c>
+      <c r="I50" s="54" t="inlineStr">
+        <is>
+          <t>Interface Display</t>
+        </is>
+      </c>
+      <c r="J50" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K50" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.07</t>
+        </is>
+      </c>
+      <c r="L50" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="54" t="inlineStr">
+        <is>
+          <t>AA199530</t>
+        </is>
+      </c>
+      <c r="B51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="C51" s="55" t="n">
+        <v>0.3940046296296296</v>
+      </c>
+      <c r="D51" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E51" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F51" s="54" t="n"/>
+      <c r="G51" s="54" t="n"/>
+      <c r="H51" s="54" t="inlineStr">
+        <is>
+          <t>ZMM-MQ-001</t>
+        </is>
+      </c>
+      <c r="I51" s="54" t="inlineStr">
+        <is>
+          <t>MQ 인가공급업체 관리</t>
+        </is>
+      </c>
+      <c r="J51" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K51" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.09</t>
+        </is>
+      </c>
+      <c r="L51" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="54" t="inlineStr">
+        <is>
+          <t>AA208665</t>
+        </is>
+      </c>
+      <c r="B52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="C52" s="55" t="n">
+        <v>0.6525925925925926</v>
+      </c>
+      <c r="D52" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E52" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F52" s="54" t="n"/>
+      <c r="G52" s="54" t="n"/>
+      <c r="H52" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-EP000-000-M5</t>
+        </is>
+      </c>
+      <c r="I52" s="54" t="n"/>
+      <c r="J52" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K52" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.02</t>
+        </is>
+      </c>
+      <c r="L52" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="54" t="inlineStr">
+        <is>
+          <t>AA216786</t>
+        </is>
+      </c>
+      <c r="B53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C53" s="55" t="n">
+        <v>0.7110532407407407</v>
+      </c>
+      <c r="D53" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E53" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F53" s="54" t="n"/>
+      <c r="G53" s="54" t="n"/>
+      <c r="H53" s="54" t="inlineStr">
+        <is>
+          <t>ZAMS-AC01-002</t>
+        </is>
+      </c>
+      <c r="I53" s="54" t="inlineStr">
+        <is>
+          <t>항공기 / BFE</t>
+        </is>
+      </c>
+      <c r="J53" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K53" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L53" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="54" t="inlineStr">
+        <is>
+          <t>AA220110</t>
+        </is>
+      </c>
+      <c r="B54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="C54" s="55" t="n">
+        <v>0.6093055555555555</v>
+      </c>
+      <c r="D54" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E54" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F54" s="54" t="n"/>
+      <c r="G54" s="54" t="n"/>
+      <c r="H54" s="54" t="inlineStr">
+        <is>
+          <t>Z_COMMONID_MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="I54" s="54" t="n"/>
+      <c r="J54" s="54" t="inlineStr">
+        <is>
+          <t>PFCG</t>
+        </is>
+      </c>
+      <c r="K54" s="54" t="inlineStr">
+        <is>
+          <t>2023.02.01</t>
+        </is>
+      </c>
+      <c r="L54" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="54" t="inlineStr">
+        <is>
+          <t>AA236778</t>
+        </is>
+      </c>
+      <c r="B55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C55" s="55" t="n">
+        <v>0.4008680555555555</v>
+      </c>
+      <c r="D55" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E55" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F55" s="54" t="n"/>
+      <c r="G55" s="54" t="n"/>
+      <c r="H55" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I55" s="54" t="n"/>
+      <c r="J55" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K55" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L55" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="54" t="inlineStr">
+        <is>
+          <t>AA251644</t>
+        </is>
+      </c>
+      <c r="B56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="C56" s="55" t="n">
+        <v>0.4179050925925926</v>
+      </c>
+      <c r="D56" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E56" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F56" s="54" t="n"/>
+      <c r="G56" s="54" t="n"/>
+      <c r="H56" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I56" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J56" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K56" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.04</t>
+        </is>
+      </c>
+      <c r="L56" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="54" t="inlineStr">
+        <is>
+          <t>AA258842</t>
+        </is>
+      </c>
+      <c r="B57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="C57" s="55" t="n">
+        <v>0.6103009259259259</v>
+      </c>
+      <c r="D57" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E57" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F57" s="54" t="n"/>
+      <c r="G57" s="54" t="n"/>
+      <c r="H57" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PY007-007-H1</t>
+        </is>
+      </c>
+      <c r="I57" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PY] (HASS) 담당자 (팀)</t>
+        </is>
+      </c>
+      <c r="J57" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K57" s="54" t="inlineStr">
+        <is>
+          <t>2023.07.27</t>
+        </is>
+      </c>
+      <c r="L57" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="54" t="inlineStr">
+        <is>
+          <t>AA258996</t>
+        </is>
+      </c>
+      <c r="B58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="C58" s="55" t="n">
+        <v>0.4435069444444444</v>
+      </c>
+      <c r="D58" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E58" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F58" s="54" t="n"/>
+      <c r="G58" s="54" t="n"/>
+      <c r="H58" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA10-010</t>
+        </is>
+      </c>
+      <c r="I58" s="54" t="inlineStr">
+        <is>
+          <t>MIDAS Master</t>
+        </is>
+      </c>
+      <c r="J58" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K58" s="54" t="inlineStr">
+        <is>
+          <t>2023.01.26</t>
+        </is>
+      </c>
+      <c r="L58" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="54" t="inlineStr">
+        <is>
+          <t>AA259101</t>
+        </is>
+      </c>
+      <c r="B59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="C59" s="55" t="n">
+        <v>0.6574652777777777</v>
+      </c>
+      <c r="D59" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E59" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F59" s="54" t="n"/>
+      <c r="G59" s="54" t="n"/>
+      <c r="H59" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-ME01-013</t>
+        </is>
+      </c>
+      <c r="I59" s="54" t="inlineStr">
+        <is>
+          <t>항공기/엔진 외주수리비 자산화 담당자</t>
+        </is>
+      </c>
+      <c r="J59" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K59" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.18</t>
+        </is>
+      </c>
+      <c r="L59" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="54" t="inlineStr">
+        <is>
+          <t>AA260436</t>
+        </is>
+      </c>
+      <c r="B60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="C60" s="55" t="n">
+        <v>0.4691435185185185</v>
+      </c>
+      <c r="D60" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E60" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F60" s="54" t="n"/>
+      <c r="G60" s="54" t="n"/>
+      <c r="H60" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-AA20-010</t>
+        </is>
+      </c>
+      <c r="I60" s="54" t="inlineStr">
+        <is>
+          <t>Common User</t>
+        </is>
+      </c>
+      <c r="J60" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K60" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.10</t>
+        </is>
+      </c>
+      <c r="L60" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="54" t="inlineStr">
+        <is>
+          <t>AA262802</t>
+        </is>
+      </c>
+      <c r="B61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="C61" s="55" t="n">
+        <v>0.5523842592592593</v>
+      </c>
+      <c r="D61" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E61" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F61" s="54" t="n"/>
+      <c r="G61" s="54" t="n"/>
+      <c r="H61" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-010</t>
+        </is>
+      </c>
+      <c r="I61" s="54" t="n"/>
+      <c r="J61" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K61" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.04</t>
+        </is>
+      </c>
+      <c r="L61" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="54" t="inlineStr">
+        <is>
+          <t>AA263006</t>
+        </is>
+      </c>
+      <c r="B62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="C62" s="55" t="n">
+        <v>0.7208564814814815</v>
+      </c>
+      <c r="D62" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E62" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F62" s="54" t="n"/>
+      <c r="G62" s="54" t="n"/>
+      <c r="H62" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-010</t>
+        </is>
+      </c>
+      <c r="I62" s="54" t="n"/>
+      <c r="J62" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K62" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="L62" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="54" t="inlineStr">
+        <is>
+          <t>AA263236</t>
+        </is>
+      </c>
+      <c r="B63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="C63" s="55" t="n">
+        <v>0.6673263888888888</v>
+      </c>
+      <c r="D63" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E63" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F63" s="54" t="n"/>
+      <c r="G63" s="54" t="n"/>
+      <c r="H63" s="54" t="inlineStr">
+        <is>
+          <t>ZFI-PM01-002</t>
+        </is>
+      </c>
+      <c r="I63" s="54" t="inlineStr">
+        <is>
+          <t>Fixed asset - power user</t>
+        </is>
+      </c>
+      <c r="J63" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K63" s="54" t="inlineStr">
+        <is>
+          <t>2023.06.15</t>
+        </is>
+      </c>
+      <c r="L63" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="54" t="inlineStr">
+        <is>
+          <t>AA263878</t>
+        </is>
+      </c>
+      <c r="B64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="C64" s="55" t="n">
+        <v>0.6350810185185185</v>
+      </c>
+      <c r="D64" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E64" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F64" s="54" t="n"/>
+      <c r="G64" s="54" t="n"/>
+      <c r="H64" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PA900-900</t>
+        </is>
+      </c>
+      <c r="I64" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PA] 정비본부 타모듈 HR권한부여 (PM, MM, CO)</t>
+        </is>
+      </c>
+      <c r="J64" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K64" s="54" t="inlineStr">
+        <is>
+          <t>2023.08.17</t>
+        </is>
+      </c>
+      <c r="L64" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="54" t="inlineStr">
+        <is>
+          <t>AA263906</t>
+        </is>
+      </c>
+      <c r="B65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="C65" s="55" t="n">
+        <v>0.7181712962962963</v>
+      </c>
+      <c r="D65" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E65" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F65" s="54" t="n"/>
+      <c r="G65" s="54" t="n"/>
+      <c r="H65" s="54" t="inlineStr">
+        <is>
+          <t>ZFC-AA20-020</t>
+        </is>
+      </c>
+      <c r="I65" s="54" t="n"/>
+      <c r="J65" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K65" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.15</t>
+        </is>
+      </c>
+      <c r="L65" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="54" t="inlineStr">
+        <is>
+          <t>AA631925</t>
+        </is>
+      </c>
+      <c r="B66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="C66" s="55" t="n">
+        <v>0.4579745370370371</v>
+      </c>
+      <c r="D66" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E66" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F66" s="54" t="n"/>
+      <c r="G66" s="54" t="n"/>
+      <c r="H66" s="54" t="inlineStr">
+        <is>
+          <t>ZHR-PE520-000-H5</t>
+        </is>
+      </c>
+      <c r="I66" s="54" t="inlineStr">
+        <is>
+          <t>[HR-PE] (HASS) 현장/법정교육 담당</t>
+        </is>
+      </c>
+      <c r="J66" s="54" t="inlineStr">
+        <is>
+          <t>SU10</t>
+        </is>
+      </c>
+      <c r="K66" s="54" t="inlineStr">
+        <is>
+          <t>2023.05.02</t>
+        </is>
+      </c>
+      <c r="L66" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR03</t>
+        </is>
+      </c>
+      <c r="B67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="C67" s="55" t="n">
+        <v>0.4067939814814815</v>
+      </c>
+      <c r="D67" s="54" t="inlineStr">
+        <is>
+          <t>IDKIM</t>
+        </is>
+      </c>
+      <c r="E67" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F67" s="54" t="n"/>
+      <c r="G67" s="54" t="n"/>
+      <c r="H67" s="54" t="inlineStr">
+        <is>
+          <t>ZCO-PL01-001</t>
+        </is>
+      </c>
+      <c r="I67" s="54" t="inlineStr">
+        <is>
+          <t>[비용예산] KEY USER</t>
+        </is>
+      </c>
+      <c r="J67" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K67" s="54" t="inlineStr">
+        <is>
+          <t>2023.04.21</t>
+        </is>
+      </c>
+      <c r="L67" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="54" t="inlineStr">
+        <is>
+          <t>AIAAR08</t>
+        </is>
+      </c>
+      <c r="B68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="C68" s="55" t="n">
+        <v>0.5673495370370371</v>
+      </c>
+      <c r="D68" s="54" t="inlineStr">
+        <is>
+          <t>AA164331</t>
+        </is>
+      </c>
+      <c r="E68" s="54" t="inlineStr">
+        <is>
+          <t>Role added</t>
+        </is>
+      </c>
+      <c r="F68" s="54" t="n"/>
+      <c r="G68" s="54" t="n"/>
+      <c r="H68" s="54" t="inlineStr">
+        <is>
+          <t>ZBC-XT01-011</t>
+        </is>
+      </c>
+      <c r="I68" s="54" t="inlineStr">
+        <is>
+          <t>Role for Data Maint.(APP Only)</t>
+        </is>
+      </c>
+      <c r="J68" s="54" t="inlineStr">
+        <is>
+          <t>SU01</t>
+        </is>
+      </c>
+      <c r="K68" s="54" t="inlineStr">
+        <is>
+          <t>2023.03.16</t>
+        </is>
+      </c>
+      <c r="L68" s="54" t="inlineStr">
+        <is>
+          <t>9999.12.31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34572,7 +35904,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -35807,7 +37139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35816,7 +37148,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -35831,7 +37163,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -37066,7 +38398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -39606,7 +40938,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -39621,7 +40953,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
@@ -42114,10 +43446,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -42129,12 +43461,8 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="53" t="n"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -43407,7 +44735,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -43415,14 +44743,14 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>데이터 변경 권한 제한</t>
+          <t>데이터 변경 승인</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>기본</t>
+          <t>SAP</t>
         </is>
       </c>
     </row>
